--- a/Outputs/1. Budget/Output Files/100000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_9_38.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2263643.812447251</v>
+        <v>2258118.887963623</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2622264.793641993</v>
+        <v>2622264.793641994</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11822848.08824777</v>
+        <v>11878802.29881995</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5599775.797806302</v>
+        <v>5592064.843120162</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>56.08146173384111</v>
       </c>
       <c r="T11" t="n">
+        <v>49.39655149516723</v>
+      </c>
+      <c r="U11" t="n">
         <v>56.08146173384111</v>
-      </c>
-      <c r="U11" t="n">
-        <v>49.39655149516723</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.5125883303751</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>56.08146173384111</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>20.83279080164544</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1615,55 +1615,55 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>49.39655149516723</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>56.08146173384111</v>
       </c>
-      <c r="F14" t="n">
+      <c r="S14" t="n">
         <v>56.08146173384111</v>
       </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>56.08146173384111</v>
-      </c>
-      <c r="H14" t="n">
-        <v>49.39655149516723</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>49.39655149516723</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>56.08146173384111</v>
@@ -1742,13 +1742,13 @@
         <v>56.08146173384111</v>
       </c>
       <c r="U15" t="n">
-        <v>49.39655149516723</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,34 +1764,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>56.08146173384111</v>
+        <v>20.83279080164544</v>
       </c>
       <c r="H16" t="n">
-        <v>10.51258833037512</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>176.5639709668112</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>183.8256890936302</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>114.3489086140935</v>
       </c>
       <c r="S17" t="n">
-        <v>89.34717278671341</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>196.4456490873557</v>
+        <v>187.5756402370751</v>
       </c>
       <c r="U17" t="n">
-        <v>224.6954524310608</v>
+        <v>215.8254435807803</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>118.4190119166082</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>101.8233078361544</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7.30010467211644</v>
+        <v>136.1629617767816</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>164.6445193677654</v>
       </c>
       <c r="U18" t="n">
-        <v>199.2911816041992</v>
+        <v>190.4211727539186</v>
       </c>
       <c r="V18" t="n">
-        <v>206.1503866726496</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>225.0447826841439</v>
+        <v>216.1747738338634</v>
       </c>
       <c r="X18" t="n">
-        <v>179.1227847267018</v>
+        <v>126.1015167079359</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>43.32954546951336</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>132.4707700314025</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>141.7731820501133</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>66.35306859380788</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>199.0594549122615</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>146.3575699919347</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>65.92781565150736</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>82.59188136022502</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>88.76719669867342</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>69.09802350997133</v>
+        <v>3.899575520759923</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.455330561772755</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>16.21653186300081</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>87.7418688141955</v>
       </c>
       <c r="T21" t="n">
-        <v>124.1935398114091</v>
+        <v>116.2234264051793</v>
       </c>
       <c r="U21" t="n">
-        <v>149.9701931975623</v>
+        <v>142.0000797913325</v>
       </c>
       <c r="V21" t="n">
-        <v>156.8293982660127</v>
+        <v>148.8592848597829</v>
       </c>
       <c r="W21" t="n">
-        <v>175.7237942775071</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>129.8017963200649</v>
+        <v>121.8316829138352</v>
       </c>
       <c r="Y21" t="n">
-        <v>129.7115068938918</v>
+        <v>121.741393487662</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>72.6442841347998</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.04967706881644</v>
       </c>
       <c r="H22" t="n">
-        <v>86.25598362402702</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.50917263761596</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>96.52945047288266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>148.0454091535597</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>151.974400544869</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>102.4096779740372</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>202.5816960469487</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>141.7683530993948</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.0198270596844</v>
+        <v>297.0957506115002</v>
       </c>
       <c r="C23" t="n">
-        <v>279.5588771672113</v>
+        <v>281.3315894813652</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>270.7417393310407</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>297.0957506115002</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>279.2947341347139</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.0957506115002</v>
+        <v>6.704358937703607</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80.81916904607115</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.563618483261187</v>
+        <v>88.76719669867342</v>
       </c>
       <c r="D24" t="n">
-        <v>61.73105096084257</v>
+        <v>63.50376327499643</v>
       </c>
       <c r="E24" t="n">
-        <v>71.93106585160476</v>
+        <v>73.70377816575862</v>
       </c>
       <c r="F24" t="n">
-        <v>59.35519778958769</v>
+        <v>61.12791010374156</v>
       </c>
       <c r="G24" t="n">
-        <v>51.62950255941445</v>
+        <v>53.40221487356831</v>
       </c>
       <c r="H24" t="n">
-        <v>26.52142963270028</v>
+        <v>28.29414194685414</v>
       </c>
       <c r="I24" t="n">
-        <v>3.68261824761889</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.44381954884695</v>
+        <v>16.21653186300081</v>
       </c>
       <c r="S24" t="n">
-        <v>85.96915650004163</v>
+        <v>71.28549720510932</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>116.2234264051793</v>
       </c>
       <c r="U24" t="n">
-        <v>140.2273674771786</v>
+        <v>142.0000797913325</v>
       </c>
       <c r="V24" t="n">
-        <v>147.0865725456291</v>
+        <v>148.8592848597829</v>
       </c>
       <c r="W24" t="n">
-        <v>165.9809685571234</v>
+        <v>167.7536808712773</v>
       </c>
       <c r="X24" t="n">
-        <v>120.0589705996813</v>
+        <v>121.8316829138352</v>
       </c>
       <c r="Y24" t="n">
-        <v>119.9686811735082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>95.89067789229497</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>83.30551880898551</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>58.11574677491699</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.50917263761596</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>9.417877827030452</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4480286478981981</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.3025834331761</v>
+        <v>140.0752957473299</v>
       </c>
       <c r="T25" t="n">
-        <v>142.2315748244853</v>
+        <v>144.0042871386392</v>
       </c>
       <c r="U25" t="n">
-        <v>200.6050147526947</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.1559872031719</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>270.598113900229</v>
+        <v>272.3708262143828</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.533400891865563</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>285.646172958015</v>
+        <v>286.4068615357265</v>
       </c>
       <c r="Y26" t="n">
         <v>297.0957506115002</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.44825592941334</v>
+        <v>84.2209682435672</v>
       </c>
       <c r="C27" t="n">
-        <v>88.62357126786173</v>
+        <v>90.3962835820156</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>65.13285015833861</v>
       </c>
       <c r="E27" t="n">
-        <v>73.56015273494694</v>
+        <v>75.3328650491008</v>
       </c>
       <c r="F27" t="n">
-        <v>60.98428467292987</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>53.25858944275663</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>28.15051651604246</v>
+        <v>29.92322883019632</v>
       </c>
       <c r="I27" t="n">
-        <v>5.311705130961073</v>
+        <v>7.084417445114937</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.59824338338382</v>
+        <v>89.37095569753768</v>
       </c>
       <c r="T27" t="n">
-        <v>116.0798009743676</v>
+        <v>1.176063626637976</v>
       </c>
       <c r="U27" t="n">
-        <v>141.8564543605208</v>
+        <v>143.6291666746747</v>
       </c>
       <c r="V27" t="n">
-        <v>125.7995016364365</v>
+        <v>150.4883717431251</v>
       </c>
       <c r="W27" t="n">
-        <v>167.6100554404656</v>
+        <v>169.3827677546195</v>
       </c>
       <c r="X27" t="n">
-        <v>121.6880574830235</v>
+        <v>123.4607697971773</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>123.3704803710042</v>
       </c>
     </row>
     <row r="28">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>84.93460569232769</v>
       </c>
       <c r="D28" t="n">
-        <v>64.53054529775835</v>
+        <v>66.30325761191222</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>64.12174724026903</v>
       </c>
       <c r="F28" t="n">
-        <v>61.33612030247724</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>83.90605163800475</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>78.14224478698557</v>
+        <v>79.91495710113944</v>
       </c>
       <c r="I28" t="n">
-        <v>71.36554720680428</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.077115531240381</v>
+        <v>3.849827845394245</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.2167330268511</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>202.438070616137</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.397439982737</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.36748515583653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>297.0957506115002</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>281.1879640505535</v>
+        <v>282.9606763647074</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>67.55690253484954</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>126.7078541799452</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>169.0334375015364</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>209.614567780571</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>277.589723699556</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>297.0957506115002</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.44825592941334</v>
+        <v>84.2209682435672</v>
       </c>
       <c r="C30" t="n">
-        <v>88.62357126786173</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>48.60917915866014</v>
+        <v>65.13285015833861</v>
       </c>
       <c r="E30" t="n">
-        <v>73.56015273494694</v>
+        <v>75.3328650491008</v>
       </c>
       <c r="F30" t="n">
-        <v>60.98428467292987</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>53.25858944275663</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>28.15051651604246</v>
+        <v>3.643062750328532</v>
       </c>
       <c r="I30" t="n">
-        <v>5.311705130961073</v>
+        <v>7.084417445114937</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>16.07290643218913</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>89.37095569753768</v>
       </c>
       <c r="T30" t="n">
-        <v>116.0798009743676</v>
+        <v>117.8525132885215</v>
       </c>
       <c r="U30" t="n">
-        <v>141.8564543605208</v>
+        <v>143.6291666746747</v>
       </c>
       <c r="V30" t="n">
-        <v>148.7156594289713</v>
+        <v>150.4883717431251</v>
       </c>
       <c r="W30" t="n">
-        <v>167.6100554404656</v>
+        <v>169.3827677546195</v>
       </c>
       <c r="X30" t="n">
-        <v>121.6880574830235</v>
+        <v>123.4607697971773</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>123.3704803710042</v>
       </c>
     </row>
     <row r="31">
@@ -2952,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>83.16189337817383</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>64.53054529775835</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>61.33612030247724</v>
+        <v>63.1088326166311</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>78.14224478698557</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.36554720680428</v>
+        <v>73.13825952095814</v>
       </c>
       <c r="J31" t="n">
-        <v>9.27425239621877</v>
+        <v>11.04696471037263</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.1184755307892</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>145.6333740219814</v>
       </c>
       <c r="U31" t="n">
-        <v>202.2341016360369</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>169.8254279175279</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>129.9857097131597</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>273.3497356677796</v>
+        <v>283.992456832214</v>
       </c>
       <c r="E32" t="n">
-        <v>35.9844118054008</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.001013590597188</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>258.1414961628637</v>
+        <v>268.7842173272982</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>288.3977947255656</v>
+        <v>297.0957506115002</v>
       </c>
       <c r="Y32" t="n">
         <v>297.0957506115002</v>
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>85.19987769696397</v>
+        <v>95.84259886139839</v>
       </c>
       <c r="C33" t="n">
-        <v>91.37519303541237</v>
+        <v>102.0179141998468</v>
       </c>
       <c r="D33" t="n">
-        <v>66.11175961173538</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>86.95449566693199</v>
       </c>
       <c r="F33" t="n">
-        <v>63.73590644048051</v>
+        <v>74.37862760491493</v>
       </c>
       <c r="G33" t="n">
-        <v>56.01021121030726</v>
+        <v>66.65293237474168</v>
       </c>
       <c r="H33" t="n">
-        <v>30.90213828359309</v>
+        <v>41.54485944802751</v>
       </c>
       <c r="I33" t="n">
-        <v>8.063326898511704</v>
+        <v>18.70604806294612</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>18.82452819973976</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>23.03811107126389</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>118.8314227419182</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>144.6080761280714</v>
+        <v>155.2507972925059</v>
       </c>
       <c r="V33" t="n">
-        <v>151.4672811965219</v>
+        <v>162.1100023609563</v>
       </c>
       <c r="W33" t="n">
-        <v>170.3616772080162</v>
+        <v>79.43640169699648</v>
       </c>
       <c r="X33" t="n">
-        <v>124.4396792505741</v>
+        <v>135.0824004150085</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>134.9921109888354</v>
       </c>
     </row>
     <row r="34">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>85.91351514572446</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.28216706530898</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>65.1006566936658</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>64.08774207002787</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>86.65767340555539</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.8938665545362</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>74.11716897435491</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>151.5129582815784</v>
       </c>
       <c r="T34" t="n">
-        <v>62.92920365981227</v>
+        <v>157.2550046398125</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>215.6284445680219</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>77.66086681819547</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8568003948832</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>177.0077520399788</v>
+        <v>186.7505777603625</v>
       </c>
       <c r="T35" t="n">
-        <v>191.0835320178649</v>
+        <v>200.8263577382485</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>229.0761610819536</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3658789460332</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>140.6961814420492</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>115.4327480183723</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>125.6327629091344</v>
+        <v>135.3755886295181</v>
       </c>
       <c r="F36" t="n">
-        <v>113.0568948471174</v>
+        <v>122.799720567501</v>
       </c>
       <c r="G36" t="n">
-        <v>105.3311996169441</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>68.14551660637665</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>73.10388430171676</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>177.8952368689388</v>
       </c>
       <c r="U36" t="n">
-        <v>193.9290645347083</v>
+        <v>203.671890255092</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>210.5310953235424</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>85.05472063182692</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>36.21116465047484</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>55.93070026725797</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>203.4401635631543</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>136.8118184632911</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>127.5996261152668</v>
       </c>
       <c r="S38" t="n">
-        <v>186.7505777603625</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>200.8263577382485</v>
@@ -3562,7 +3562,7 @@
         <v>229.0761610819536</v>
       </c>
       <c r="V38" t="n">
-        <v>77.66086681819547</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>144.2636918239845</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>125.1755737387559</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.3755886295181</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>122.799720567501</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.88834232676028</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>203.671890255092</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>210.5310953235424</v>
       </c>
       <c r="W39" t="n">
-        <v>229.4254913350368</v>
+        <v>119.294239866357</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>166.524201623992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>36.21116465047484</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>203.4401635631543</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>36.21116465047484</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>56.08146173384111</v>
+        <v>49.39655149516722</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>56.08146173384111</v>
       </c>
       <c r="G41" t="n">
-        <v>49.39655149516723</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>49.39655149516723</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>49.39655149516722</v>
+      </c>
+      <c r="T42" t="n">
         <v>56.08146173384111</v>
       </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="V42" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>10.51258833037512</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>10.51258833037512</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>49.39655149516722</v>
       </c>
       <c r="H44" t="n">
         <v>56.08146173384111</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>49.39655149516722</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="E45" t="n">
-        <v>56.08146173384111</v>
+        <v>49.39655149516723</v>
       </c>
       <c r="F45" t="n">
-        <v>49.39655149516723</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>56.08146173384111</v>
@@ -5044,16 +5044,16 @@
         <v>4.486516938707289</v>
       </c>
       <c r="K11" t="n">
-        <v>4.486516938707289</v>
+        <v>60.00716405520999</v>
       </c>
       <c r="L11" t="n">
-        <v>60.00716405520999</v>
+        <v>115.5278111717127</v>
       </c>
       <c r="M11" t="n">
-        <v>115.5278111717127</v>
+        <v>171.0484582882154</v>
       </c>
       <c r="N11" t="n">
-        <v>168.8051998188618</v>
+        <v>224.3258469353644</v>
       </c>
       <c r="O11" t="n">
         <v>224.3258469353644</v>
@@ -5071,7 +5071,7 @@
         <v>111.0299646447763</v>
       </c>
       <c r="T11" t="n">
-        <v>54.38202349948227</v>
+        <v>61.13445808400134</v>
       </c>
       <c r="U11" t="n">
         <v>4.486516938707289</v>
@@ -5123,19 +5123,19 @@
         <v>4.486516938707289</v>
       </c>
       <c r="K12" t="n">
-        <v>60.00716405520999</v>
+        <v>57.76390558585635</v>
       </c>
       <c r="L12" t="n">
-        <v>115.5278111717127</v>
+        <v>57.76390558585635</v>
       </c>
       <c r="M12" t="n">
-        <v>115.5278111717127</v>
+        <v>57.76390558585635</v>
       </c>
       <c r="N12" t="n">
-        <v>115.5278111717127</v>
+        <v>57.76390558585635</v>
       </c>
       <c r="O12" t="n">
-        <v>115.5278111717127</v>
+        <v>113.2845527023591</v>
       </c>
       <c r="P12" t="n">
         <v>168.8051998188618</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="E13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="F13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="G13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="H13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="I13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="J13" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="K13" t="n">
         <v>4.486516938707289</v>
@@ -5229,22 +5229,22 @@
         <v>25.52973997067238</v>
       </c>
       <c r="T13" t="n">
-        <v>25.52973997067238</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="U13" t="n">
-        <v>25.52973997067238</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="V13" t="n">
-        <v>25.52973997067238</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="W13" t="n">
-        <v>25.52973997067238</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="X13" t="n">
-        <v>25.52973997067238</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.52973997067238</v>
+        <v>4.486516938707289</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>224.3258469353644</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="C14" t="n">
-        <v>224.3258469353644</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="D14" t="n">
-        <v>224.3258469353644</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="E14" t="n">
-        <v>167.6779057900704</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="F14" t="n">
-        <v>111.0299646447763</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="G14" t="n">
         <v>54.38202349948227</v>
       </c>
       <c r="H14" t="n">
-        <v>4.486516938707289</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="I14" t="n">
         <v>4.486516938707289</v>
@@ -5284,16 +5284,16 @@
         <v>60.00716405520999</v>
       </c>
       <c r="L14" t="n">
-        <v>115.5278111717127</v>
+        <v>60.00716405520999</v>
       </c>
       <c r="M14" t="n">
+        <v>113.2845527023591</v>
+      </c>
+      <c r="N14" t="n">
+        <v>113.2845527023591</v>
+      </c>
+      <c r="O14" t="n">
         <v>168.8051998188618</v>
-      </c>
-      <c r="N14" t="n">
-        <v>168.8051998188618</v>
-      </c>
-      <c r="O14" t="n">
-        <v>224.3258469353644</v>
       </c>
       <c r="P14" t="n">
         <v>224.3258469353644</v>
@@ -5302,28 +5302,28 @@
         <v>224.3258469353644</v>
       </c>
       <c r="R14" t="n">
-        <v>224.3258469353644</v>
+        <v>167.6779057900704</v>
       </c>
       <c r="S14" t="n">
-        <v>224.3258469353644</v>
+        <v>111.0299646447763</v>
       </c>
       <c r="T14" t="n">
-        <v>224.3258469353644</v>
+        <v>111.0299646447763</v>
       </c>
       <c r="U14" t="n">
-        <v>224.3258469353644</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="V14" t="n">
-        <v>224.3258469353644</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="W14" t="n">
-        <v>224.3258469353644</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="X14" t="n">
-        <v>224.3258469353644</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.3258469353644</v>
+        <v>54.38202349948227</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.486516938707289</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="C15" t="n">
-        <v>4.486516938707289</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="D15" t="n">
-        <v>4.486516938707289</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="E15" t="n">
-        <v>4.486516938707289</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="F15" t="n">
         <v>4.486516938707289</v>
@@ -5363,7 +5363,7 @@
         <v>60.00716405520999</v>
       </c>
       <c r="L15" t="n">
-        <v>60.00716405520999</v>
+        <v>113.2845527023591</v>
       </c>
       <c r="M15" t="n">
         <v>113.2845527023591</v>
@@ -5375,34 +5375,34 @@
         <v>168.8051998188618</v>
       </c>
       <c r="P15" t="n">
-        <v>168.8051998188618</v>
+        <v>224.3258469353644</v>
       </c>
       <c r="Q15" t="n">
         <v>224.3258469353644</v>
       </c>
       <c r="R15" t="n">
+        <v>224.3258469353644</v>
+      </c>
+      <c r="S15" t="n">
         <v>167.6779057900704</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>111.0299646447763</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
+        <v>111.0299646447763</v>
+      </c>
+      <c r="V15" t="n">
+        <v>111.0299646447763</v>
+      </c>
+      <c r="W15" t="n">
         <v>54.38202349948227</v>
       </c>
-      <c r="U15" t="n">
-        <v>4.486516938707289</v>
-      </c>
-      <c r="V15" t="n">
-        <v>4.486516938707289</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4.486516938707289</v>
-      </c>
       <c r="X15" t="n">
-        <v>4.486516938707289</v>
+        <v>54.38202349948227</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.486516938707289</v>
+        <v>54.38202349948227</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.4735634065545</v>
+        <v>138.8256222612605</v>
       </c>
       <c r="C16" t="n">
-        <v>195.4735634065545</v>
+        <v>138.8256222612605</v>
       </c>
       <c r="D16" t="n">
-        <v>195.4735634065545</v>
+        <v>82.17768111596644</v>
       </c>
       <c r="E16" t="n">
-        <v>195.4735634065545</v>
+        <v>25.52973997067238</v>
       </c>
       <c r="F16" t="n">
-        <v>195.4735634065545</v>
+        <v>25.52973997067238</v>
       </c>
       <c r="G16" t="n">
-        <v>138.8256222612605</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2068461699725</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="I16" t="n">
-        <v>71.55890502467845</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="J16" t="n">
-        <v>14.9109638793844</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="K16" t="n">
         <v>4.486516938707289</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
       <c r="C17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
       <c r="D17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
       <c r="E17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
       <c r="F17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
       <c r="G17" t="n">
-        <v>204.9636573462029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>204.9636573462029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>848.5532074155923</v>
       </c>
       <c r="S17" t="n">
-        <v>873.8074860291075</v>
+        <v>848.5532074155923</v>
       </c>
       <c r="T17" t="n">
-        <v>675.3775374560209</v>
+        <v>659.082863741779</v>
       </c>
       <c r="U17" t="n">
-        <v>448.4124339903029</v>
+        <v>441.0773651753342</v>
       </c>
       <c r="V17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
       <c r="W17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
       <c r="X17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
       <c r="Y17" t="n">
-        <v>204.9636573462029</v>
+        <v>197.6285885312341</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.8963066623422</v>
+        <v>122.1329692073384</v>
       </c>
       <c r="C18" t="n">
-        <v>138.8963066623422</v>
+        <v>122.1329692073384</v>
       </c>
       <c r="D18" t="n">
-        <v>138.8963066623422</v>
+        <v>122.1329692073384</v>
       </c>
       <c r="E18" t="n">
-        <v>138.8963066623422</v>
+        <v>122.1329692073384</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>122.1329692073384</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5597,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>956.6833124074883</v>
+        <v>826.5188102815639</v>
       </c>
       <c r="T18" t="n">
-        <v>956.6833124074883</v>
+        <v>660.2112149605888</v>
       </c>
       <c r="U18" t="n">
-        <v>755.3790885648629</v>
+        <v>467.8665960172367</v>
       </c>
       <c r="V18" t="n">
-        <v>547.1463747541056</v>
+        <v>467.8665960172367</v>
       </c>
       <c r="W18" t="n">
-        <v>319.8284124468895</v>
+        <v>249.5082386092939</v>
       </c>
       <c r="X18" t="n">
-        <v>138.8963066623422</v>
+        <v>122.1329692073384</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.8963066623422</v>
+        <v>122.1329692073384</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.090001727791</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.090001727791</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.090001727791</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.090001727791</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.090001727791</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5676,49 +5676,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>23.61804467459662</v>
+        <v>32.39935343637436</v>
       </c>
       <c r="L19" t="n">
-        <v>77.31586815431751</v>
+        <v>94.878485677873</v>
       </c>
       <c r="M19" t="n">
-        <v>142.8876048185476</v>
+        <v>169.2315311038809</v>
       </c>
       <c r="N19" t="n">
-        <v>212.9621539459918</v>
+        <v>248.0873889931028</v>
       </c>
       <c r="O19" t="n">
-        <v>263.685129052899</v>
+        <v>307.5916728617877</v>
       </c>
       <c r="P19" t="n">
-        <v>287.3746011971515</v>
+        <v>340.0624537678179</v>
       </c>
       <c r="Q19" t="n">
-        <v>287.3746011971515</v>
+        <v>340.0624537678179</v>
       </c>
       <c r="R19" t="n">
-        <v>287.3746011971515</v>
+        <v>196.8572193737641</v>
       </c>
       <c r="S19" t="n">
-        <v>287.3746011971515</v>
+        <v>196.8572193737641</v>
       </c>
       <c r="T19" t="n">
-        <v>287.3746011971515</v>
+        <v>196.8572193737641</v>
       </c>
       <c r="U19" t="n">
-        <v>287.3746011971515</v>
+        <v>196.8572193737641</v>
       </c>
       <c r="V19" t="n">
-        <v>287.3746011971515</v>
+        <v>196.8572193737641</v>
       </c>
       <c r="W19" t="n">
-        <v>220.3512995872445</v>
+        <v>196.8572193737641</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>196.8572193737641</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>196.8572193737641</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>167.1170723949953</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>897.4634023272954</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>897.4634023272954</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>897.4634023272954</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>897.4634023272954</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>654.0146256831954</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>654.0146256831954</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>654.0146256831954</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>410.5658490390953</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.07712645361809</v>
+        <v>118.3943782427441</v>
       </c>
       <c r="C21" t="n">
-        <v>89.07712645361809</v>
+        <v>28.73054319357907</v>
       </c>
       <c r="D21" t="n">
-        <v>89.07712645361809</v>
+        <v>28.73054319357907</v>
       </c>
       <c r="E21" t="n">
-        <v>89.07712645361809</v>
+        <v>28.73054319357907</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>24.7915780210943</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>24.7915780210943</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>24.7915780210943</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5837,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N21" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N21" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>947.6768202954839</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>859.0486699781147</v>
       </c>
       <c r="T21" t="n">
-        <v>838.6091354991119</v>
+        <v>741.6512695688427</v>
       </c>
       <c r="U21" t="n">
-        <v>687.1240918652106</v>
+        <v>598.2168455371938</v>
       </c>
       <c r="V21" t="n">
-        <v>528.7105582631775</v>
+        <v>447.853931537413</v>
       </c>
       <c r="W21" t="n">
-        <v>351.2117761646855</v>
+        <v>447.853931537413</v>
       </c>
       <c r="X21" t="n">
-        <v>220.0988505888623</v>
+        <v>324.7916255638422</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.07712645361809</v>
+        <v>201.8205210308502</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.5023472567864</v>
+        <v>512.784703873888</v>
       </c>
       <c r="C22" t="n">
-        <v>563.5023472567864</v>
+        <v>512.784703873888</v>
       </c>
       <c r="D22" t="n">
-        <v>490.1242824741603</v>
+        <v>512.784703873888</v>
       </c>
       <c r="E22" t="n">
-        <v>490.1242824741603</v>
+        <v>512.784703873888</v>
       </c>
       <c r="F22" t="n">
-        <v>490.1242824741603</v>
+        <v>512.784703873888</v>
       </c>
       <c r="G22" t="n">
-        <v>490.1242824741603</v>
+        <v>427.8860401680129</v>
       </c>
       <c r="H22" t="n">
-        <v>402.9970262882745</v>
+        <v>427.8860401680129</v>
       </c>
       <c r="I22" t="n">
-        <v>402.9970262882745</v>
+        <v>355.6545526552695</v>
       </c>
       <c r="J22" t="n">
-        <v>402.9970262882745</v>
+        <v>355.6545526552695</v>
       </c>
       <c r="K22" t="n">
-        <v>456.1617063752288</v>
+        <v>416.7096450143914</v>
       </c>
       <c r="L22" t="n">
-        <v>558.6873083775203</v>
+        <v>527.1256592888502</v>
       </c>
       <c r="M22" t="n">
-        <v>673.0868235643209</v>
+        <v>649.4155867478183</v>
       </c>
       <c r="N22" t="n">
-        <v>791.9891512143356</v>
+        <v>776.2083266700006</v>
       </c>
       <c r="O22" t="n">
-        <v>891.5399048438132</v>
+        <v>883.6494925716457</v>
       </c>
       <c r="P22" t="n">
         <v>964.0571555106362</v>
@@ -5934,28 +5934,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>866.552660083482</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>717.011842756654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>563.5023472567864</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>563.5023472567864</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>563.5023472567864</v>
+        <v>860.6130363449421</v>
       </c>
       <c r="W22" t="n">
-        <v>563.5023472567864</v>
+        <v>655.9850605399434</v>
       </c>
       <c r="X22" t="n">
-        <v>563.5023472567864</v>
+        <v>512.784703873888</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5023472567864</v>
+        <v>512.784703873888</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>306.1503642582244</v>
+        <v>881.5142049215524</v>
       </c>
       <c r="C23" t="n">
-        <v>23.76766004892002</v>
+        <v>597.3408822131028</v>
       </c>
       <c r="D23" t="n">
-        <v>23.76766004892002</v>
+        <v>323.8643778383142</v>
       </c>
       <c r="E23" t="n">
         <v>23.76766004892002</v>
@@ -5989,25 +5989,25 @@
         <v>23.76766004892002</v>
       </c>
       <c r="J23" t="n">
-        <v>23.76766004892002</v>
+        <v>95.03975285459953</v>
       </c>
       <c r="K23" t="n">
-        <v>186.7990392633825</v>
+        <v>198.0547587655219</v>
       </c>
       <c r="L23" t="n">
-        <v>451.7317653057993</v>
+        <v>378.1306103501805</v>
       </c>
       <c r="M23" t="n">
-        <v>668.7073925687034</v>
+        <v>670.4623777597158</v>
       </c>
       <c r="N23" t="n">
-        <v>874.5619147759428</v>
+        <v>876.316899966955</v>
       </c>
       <c r="O23" t="n">
-        <v>1023.756864918591</v>
+        <v>1025.511850109603</v>
       </c>
       <c r="P23" t="n">
-        <v>1113.416920210642</v>
+        <v>1115.171905401654</v>
       </c>
       <c r="Q23" t="n">
         <v>1188.383002446001</v>
@@ -6031,10 +6031,10 @@
         <v>1188.383002446001</v>
       </c>
       <c r="X23" t="n">
-        <v>906.2671093806332</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="Y23" t="n">
-        <v>606.170391591239</v>
+        <v>1181.610922710947</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304.9944110843037</v>
+        <v>396.2919075879023</v>
       </c>
       <c r="C24" t="n">
-        <v>301.3947964547469</v>
+        <v>306.6280725387372</v>
       </c>
       <c r="D24" t="n">
-        <v>239.0401995246029</v>
+        <v>242.4828571094479</v>
       </c>
       <c r="E24" t="n">
-        <v>166.3825572502547</v>
+        <v>168.0345963359544</v>
       </c>
       <c r="F24" t="n">
-        <v>106.4278120082469</v>
+        <v>106.2892325948013</v>
       </c>
       <c r="G24" t="n">
-        <v>54.27679932196968</v>
+        <v>52.34760140937875</v>
       </c>
       <c r="H24" t="n">
-        <v>27.48747646065627</v>
+        <v>23.76766004892002</v>
       </c>
       <c r="I24" t="n">
         <v>23.76766004892002</v>
@@ -6071,10 +6071,10 @@
         <v>23.76766004892002</v>
       </c>
       <c r="K24" t="n">
-        <v>149.1252201067574</v>
+        <v>23.76766004892002</v>
       </c>
       <c r="L24" t="n">
-        <v>379.0883259751066</v>
+        <v>253.7307659172692</v>
       </c>
       <c r="M24" t="n">
         <v>393.4667591299732</v>
@@ -6092,28 +6092,28 @@
         <v>1188.383002446001</v>
       </c>
       <c r="R24" t="n">
-        <v>1173.793285729994</v>
+        <v>1172.002667230848</v>
       </c>
       <c r="S24" t="n">
-        <v>1086.95575391177</v>
+        <v>1099.997114498415</v>
       </c>
       <c r="T24" t="n">
-        <v>1086.95575391177</v>
+        <v>982.5997140891426</v>
       </c>
       <c r="U24" t="n">
-        <v>945.3119483792664</v>
+        <v>839.1652900574936</v>
       </c>
       <c r="V24" t="n">
-        <v>796.739652878631</v>
+        <v>688.8023760577129</v>
       </c>
       <c r="W24" t="n">
-        <v>629.0821088815367</v>
+        <v>519.3542135614732</v>
       </c>
       <c r="X24" t="n">
-        <v>507.8104214071111</v>
+        <v>396.2919075879023</v>
       </c>
       <c r="Y24" t="n">
-        <v>386.6299353732645</v>
+        <v>396.2919075879023</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23.76766004892002</v>
+        <v>248.3619186838179</v>
       </c>
       <c r="C25" t="n">
-        <v>23.76766004892002</v>
+        <v>164.2149299878729</v>
       </c>
       <c r="D25" t="n">
-        <v>23.76766004892002</v>
+        <v>164.2149299878729</v>
       </c>
       <c r="E25" t="n">
-        <v>23.76766004892002</v>
+        <v>105.5121554677548</v>
       </c>
       <c r="F25" t="n">
-        <v>23.76766004892002</v>
+        <v>105.5121554677548</v>
       </c>
       <c r="G25" t="n">
-        <v>23.76766004892002</v>
+        <v>105.5121554677548</v>
       </c>
       <c r="H25" t="n">
-        <v>23.76766004892002</v>
+        <v>105.5121554677548</v>
       </c>
       <c r="I25" t="n">
-        <v>23.76766004892002</v>
+        <v>33.28066795501138</v>
       </c>
       <c r="J25" t="n">
         <v>23.76766004892002</v>
       </c>
       <c r="K25" t="n">
-        <v>86.57773759905422</v>
+        <v>84.82275240804189</v>
       </c>
       <c r="L25" t="n">
-        <v>198.7487370645254</v>
+        <v>195.2387666825008</v>
       </c>
       <c r="M25" t="n">
-        <v>322.7936497145058</v>
+        <v>317.5286941414689</v>
       </c>
       <c r="N25" t="n">
-        <v>451.3413748277003</v>
+        <v>444.3214340636511</v>
       </c>
       <c r="O25" t="n">
-        <v>560.5375259203579</v>
+        <v>551.7625999652962</v>
       </c>
       <c r="P25" t="n">
-        <v>642.7001740503607</v>
+        <v>632.1702629042867</v>
       </c>
       <c r="Q25" t="n">
-        <v>642.2476198605646</v>
+        <v>632.1702629042867</v>
       </c>
       <c r="R25" t="n">
-        <v>642.2476198605646</v>
+        <v>632.1702629042867</v>
       </c>
       <c r="S25" t="n">
-        <v>502.5480406351342</v>
+        <v>490.680065179711</v>
       </c>
       <c r="T25" t="n">
-        <v>358.8797832366641</v>
+        <v>345.2211892820957</v>
       </c>
       <c r="U25" t="n">
-        <v>156.2484552036392</v>
+        <v>345.2211892820957</v>
       </c>
       <c r="V25" t="n">
-        <v>156.2484552036392</v>
+        <v>345.2211892820957</v>
       </c>
       <c r="W25" t="n">
-        <v>23.76766004892002</v>
+        <v>345.2211892820957</v>
       </c>
       <c r="X25" t="n">
-        <v>23.76766004892002</v>
+        <v>345.2211892820957</v>
       </c>
       <c r="Y25" t="n">
-        <v>23.76766004892002</v>
+        <v>345.2211892820957</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>597.1958060203636</v>
+        <v>598.986424519509</v>
       </c>
       <c r="C26" t="n">
-        <v>597.1958060203636</v>
+        <v>598.986424519509</v>
       </c>
       <c r="D26" t="n">
         <v>323.8643778383142</v>
@@ -6229,22 +6229,22 @@
         <v>23.76766004892002</v>
       </c>
       <c r="K26" t="n">
-        <v>126.7826659598424</v>
+        <v>193.534601674425</v>
       </c>
       <c r="L26" t="n">
-        <v>390.1025959877504</v>
+        <v>373.6104532590836</v>
       </c>
       <c r="M26" t="n">
-        <v>684.2273890931356</v>
+        <v>590.5860805219877</v>
       </c>
       <c r="N26" t="n">
-        <v>949.5279970113019</v>
+        <v>877.9296959814641</v>
       </c>
       <c r="O26" t="n">
-        <v>1098.72294715395</v>
+        <v>1027.124646124112</v>
       </c>
       <c r="P26" t="n">
-        <v>1188.383002446001</v>
+        <v>1116.784701416163</v>
       </c>
       <c r="Q26" t="n">
         <v>1188.383002446001</v>
@@ -6259,19 +6259,19 @@
         <v>1188.383002446001</v>
       </c>
       <c r="U26" t="n">
-        <v>1185.824011646137</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="V26" t="n">
-        <v>1185.824011646137</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="W26" t="n">
-        <v>1185.824011646137</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="X26" t="n">
-        <v>897.2925238097578</v>
+        <v>899.0831423089032</v>
       </c>
       <c r="Y26" t="n">
-        <v>597.1958060203636</v>
+        <v>598.986424519509</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>336.7866699130602</v>
+        <v>294.3430591042395</v>
       </c>
       <c r="C27" t="n">
-        <v>247.2679110566341</v>
+        <v>203.0336817486682</v>
       </c>
       <c r="D27" t="n">
-        <v>247.2679110566341</v>
+        <v>137.2429240129726</v>
       </c>
       <c r="E27" t="n">
-        <v>172.9647264758797</v>
+        <v>61.14912093307281</v>
       </c>
       <c r="F27" t="n">
-        <v>111.3644389274656</v>
+        <v>61.14912093307281</v>
       </c>
       <c r="G27" t="n">
-        <v>57.56788393478217</v>
+        <v>61.14912093307281</v>
       </c>
       <c r="H27" t="n">
-        <v>29.13301876706252</v>
+        <v>30.92363726620783</v>
       </c>
       <c r="I27" t="n">
         <v>23.76766004892002</v>
@@ -6308,19 +6308,19 @@
         <v>23.76766004892002</v>
       </c>
       <c r="K27" t="n">
-        <v>99.34196602458803</v>
+        <v>23.76766004892002</v>
       </c>
       <c r="L27" t="n">
-        <v>99.34196602458803</v>
+        <v>253.7307659172692</v>
       </c>
       <c r="M27" t="n">
-        <v>393.4667591299732</v>
+        <v>547.8555590226543</v>
       </c>
       <c r="N27" t="n">
-        <v>687.5915522353584</v>
+        <v>841.9803521280396</v>
       </c>
       <c r="O27" t="n">
-        <v>936.3449663193207</v>
+        <v>1090.733766212002</v>
       </c>
       <c r="P27" t="n">
         <v>1118.988443932672</v>
@@ -6332,25 +6332,25 @@
         <v>1188.383002446001</v>
       </c>
       <c r="S27" t="n">
-        <v>1099.899928321371</v>
+        <v>1098.109309822225</v>
       </c>
       <c r="T27" t="n">
-        <v>982.6476041048377</v>
+        <v>1096.921366765015</v>
       </c>
       <c r="U27" t="n">
-        <v>839.3582562659278</v>
+        <v>951.84140042696</v>
       </c>
       <c r="V27" t="n">
-        <v>712.2880525927596</v>
+        <v>799.832944120773</v>
       </c>
       <c r="W27" t="n">
-        <v>542.984966289259</v>
+        <v>628.7392393181271</v>
       </c>
       <c r="X27" t="n">
-        <v>420.0677365084272</v>
+        <v>504.03139103815</v>
       </c>
       <c r="Y27" t="n">
-        <v>420.0677365084272</v>
+        <v>379.4147441987518</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>386.677265333799</v>
+        <v>322.0247990849285</v>
       </c>
       <c r="C28" t="n">
-        <v>386.677265333799</v>
+        <v>236.2322680825773</v>
       </c>
       <c r="D28" t="n">
-        <v>321.4948963461644</v>
+        <v>169.2592805957973</v>
       </c>
       <c r="E28" t="n">
-        <v>321.4948963461644</v>
+        <v>104.4898389389599</v>
       </c>
       <c r="F28" t="n">
-        <v>259.539219272955</v>
+        <v>104.4898389389599</v>
       </c>
       <c r="G28" t="n">
-        <v>174.7856317598189</v>
+        <v>104.4898389389599</v>
       </c>
       <c r="H28" t="n">
-        <v>95.85407136892435</v>
+        <v>23.76766004892002</v>
       </c>
       <c r="I28" t="n">
         <v>23.76766004892002</v>
@@ -6387,49 +6387,49 @@
         <v>23.76766004892002</v>
       </c>
       <c r="K28" t="n">
-        <v>84.96494158454546</v>
+        <v>83.20995639353313</v>
       </c>
       <c r="L28" t="n">
-        <v>195.5231450355079</v>
+        <v>192.0131746534832</v>
       </c>
       <c r="M28" t="n">
-        <v>317.9552616709796</v>
+        <v>312.6903060979425</v>
       </c>
       <c r="N28" t="n">
-        <v>444.8901907696653</v>
+        <v>437.870250005616</v>
       </c>
       <c r="O28" t="n">
-        <v>552.4735458478141</v>
+        <v>543.6986198927524</v>
       </c>
       <c r="P28" t="n">
-        <v>633.0233979633081</v>
+        <v>622.493486817234</v>
       </c>
       <c r="Q28" t="n">
-        <v>630.9253014671057</v>
+        <v>618.6047718218863</v>
       </c>
       <c r="R28" t="n">
-        <v>630.9253014671057</v>
+        <v>618.6047718218863</v>
       </c>
       <c r="S28" t="n">
-        <v>630.9253014671057</v>
+        <v>618.6047718218863</v>
       </c>
       <c r="T28" t="n">
-        <v>630.9253014671057</v>
+        <v>618.6047718218863</v>
       </c>
       <c r="U28" t="n">
-        <v>630.9253014671057</v>
+        <v>466.8706980573902</v>
       </c>
       <c r="V28" t="n">
-        <v>630.9253014671057</v>
+        <v>466.8706980573902</v>
       </c>
       <c r="W28" t="n">
-        <v>426.442401854846</v>
+        <v>466.8706980573902</v>
       </c>
       <c r="X28" t="n">
-        <v>426.442401854846</v>
+        <v>322.0247990849285</v>
       </c>
       <c r="Y28" t="n">
-        <v>386.677265333799</v>
+        <v>322.0247990849285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>307.7959065646307</v>
+        <v>309.586525063776</v>
       </c>
       <c r="C29" t="n">
         <v>23.76766004892002</v>
@@ -6463,19 +6463,19 @@
         <v>23.76766004892002</v>
       </c>
       <c r="J29" t="n">
-        <v>95.18194203110309</v>
+        <v>93.42695684009077</v>
       </c>
       <c r="K29" t="n">
-        <v>281.4410263852749</v>
+        <v>196.4419627510131</v>
       </c>
       <c r="L29" t="n">
-        <v>461.5168779699335</v>
+        <v>376.5178143356717</v>
       </c>
       <c r="M29" t="n">
-        <v>743.6734748040626</v>
+        <v>593.4934415985758</v>
       </c>
       <c r="N29" t="n">
-        <v>949.5279970113019</v>
+        <v>868.0389037590647</v>
       </c>
       <c r="O29" t="n">
         <v>1098.72294715395</v>
@@ -6487,28 +6487,28 @@
         <v>1188.383002446001</v>
       </c>
       <c r="R29" t="n">
-        <v>1188.383002446001</v>
+        <v>1120.143706956254</v>
       </c>
       <c r="S29" t="n">
-        <v>1188.383002446001</v>
+        <v>992.1559754613595</v>
       </c>
       <c r="T29" t="n">
-        <v>1188.383002446001</v>
+        <v>992.1559754613595</v>
       </c>
       <c r="U29" t="n">
-        <v>1188.383002446001</v>
+        <v>821.4151295002116</v>
       </c>
       <c r="V29" t="n">
-        <v>1188.383002446001</v>
+        <v>609.6832428531702</v>
       </c>
       <c r="W29" t="n">
-        <v>1188.383002446001</v>
+        <v>609.6832428531702</v>
       </c>
       <c r="X29" t="n">
-        <v>907.989342143419</v>
+        <v>609.6832428531702</v>
       </c>
       <c r="Y29" t="n">
-        <v>607.8926243540249</v>
+        <v>309.586525063776</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>385.8868508814037</v>
+        <v>176.4880594457714</v>
       </c>
       <c r="C30" t="n">
-        <v>296.3680920249777</v>
+        <v>176.4880594457714</v>
       </c>
       <c r="D30" t="n">
-        <v>247.2679110566341</v>
+        <v>110.6973017100758</v>
       </c>
       <c r="E30" t="n">
-        <v>172.9647264758797</v>
+        <v>34.60349863017605</v>
       </c>
       <c r="F30" t="n">
-        <v>111.3644389274656</v>
+        <v>34.60349863017605</v>
       </c>
       <c r="G30" t="n">
-        <v>57.56788393478217</v>
+        <v>34.60349863017605</v>
       </c>
       <c r="H30" t="n">
-        <v>29.13301876706252</v>
+        <v>30.92363726620783</v>
       </c>
       <c r="I30" t="n">
         <v>23.76766004892002</v>
@@ -6566,28 +6566,28 @@
         <v>1188.383002446001</v>
       </c>
       <c r="R30" t="n">
-        <v>1172.147743423588</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="S30" t="n">
-        <v>1172.147743423588</v>
+        <v>1098.109309822225</v>
       </c>
       <c r="T30" t="n">
-        <v>1054.895419207055</v>
+        <v>979.0663671065472</v>
       </c>
       <c r="U30" t="n">
-        <v>911.6060713681447</v>
+        <v>833.986400768492</v>
       </c>
       <c r="V30" t="n">
-        <v>761.3882335611031</v>
+        <v>681.977944462305</v>
       </c>
       <c r="W30" t="n">
-        <v>592.0851472576026</v>
+        <v>510.8842396596591</v>
       </c>
       <c r="X30" t="n">
-        <v>469.1679174767708</v>
+        <v>386.176391379682</v>
       </c>
       <c r="Y30" t="n">
-        <v>469.1679174767708</v>
+        <v>261.5597445402838</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>395.2935220372211</v>
+        <v>172.5495356529219</v>
       </c>
       <c r="C31" t="n">
-        <v>311.2916095340152</v>
+        <v>172.5495356529219</v>
       </c>
       <c r="D31" t="n">
-        <v>246.1092405463805</v>
+        <v>172.5495356529219</v>
       </c>
       <c r="E31" t="n">
-        <v>246.1092405463805</v>
+        <v>172.5495356529219</v>
       </c>
       <c r="F31" t="n">
-        <v>184.1535634731712</v>
+        <v>108.8032400805673</v>
       </c>
       <c r="G31" t="n">
-        <v>184.1535634731712</v>
+        <v>108.8032400805673</v>
       </c>
       <c r="H31" t="n">
-        <v>105.2220030822766</v>
+        <v>108.8032400805673</v>
       </c>
       <c r="I31" t="n">
-        <v>33.13559176227231</v>
+        <v>34.92621026141763</v>
       </c>
       <c r="J31" t="n">
         <v>23.76766004892002</v>
       </c>
       <c r="K31" t="n">
-        <v>84.96494158454546</v>
+        <v>83.20995639353313</v>
       </c>
       <c r="L31" t="n">
-        <v>195.5231450355079</v>
+        <v>192.0131746534832</v>
       </c>
       <c r="M31" t="n">
-        <v>317.9552616709796</v>
+        <v>312.6903060979425</v>
       </c>
       <c r="N31" t="n">
-        <v>444.8901907696653</v>
+        <v>437.870250005616</v>
       </c>
       <c r="O31" t="n">
-        <v>552.4735458478141</v>
+        <v>543.6986198927524</v>
       </c>
       <c r="P31" t="n">
-        <v>633.0233979633081</v>
+        <v>622.493486817234</v>
       </c>
       <c r="Q31" t="n">
-        <v>633.0233979633081</v>
+        <v>622.493486817234</v>
       </c>
       <c r="R31" t="n">
-        <v>599.5703923766523</v>
+        <v>622.493486817234</v>
       </c>
       <c r="S31" t="n">
-        <v>599.5703923766523</v>
+        <v>622.493486817234</v>
       </c>
       <c r="T31" t="n">
-        <v>599.5703923766523</v>
+        <v>475.3890686132124</v>
       </c>
       <c r="U31" t="n">
-        <v>395.2935220372211</v>
+        <v>475.3890686132124</v>
       </c>
       <c r="V31" t="n">
-        <v>395.2935220372211</v>
+        <v>303.8482323328813</v>
       </c>
       <c r="W31" t="n">
-        <v>395.2935220372211</v>
+        <v>303.8482323328813</v>
       </c>
       <c r="X31" t="n">
-        <v>395.2935220372211</v>
+        <v>303.8482323328813</v>
       </c>
       <c r="Y31" t="n">
-        <v>395.2935220372211</v>
+        <v>172.5495356529219</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>596.975380893409</v>
+        <v>588.1895668672123</v>
       </c>
       <c r="C32" t="n">
-        <v>596.975380893409</v>
+        <v>588.1895668672123</v>
       </c>
       <c r="D32" t="n">
-        <v>320.8645367845407</v>
+        <v>301.3284993599254</v>
       </c>
       <c r="E32" t="n">
-        <v>284.5166460720147</v>
+        <v>301.3284993599254</v>
       </c>
       <c r="F32" t="n">
-        <v>284.5166460720147</v>
+        <v>295.2668694704333</v>
       </c>
       <c r="G32" t="n">
-        <v>284.5166460720147</v>
+        <v>295.2668694704333</v>
       </c>
       <c r="H32" t="n">
         <v>23.76766004892002</v>
@@ -6700,25 +6700,25 @@
         <v>23.76766004892002</v>
       </c>
       <c r="J32" t="n">
-        <v>92.45783648122793</v>
+        <v>81.9215425284379</v>
       </c>
       <c r="K32" t="n">
-        <v>195.4728423921503</v>
+        <v>184.9365484393603</v>
       </c>
       <c r="L32" t="n">
-        <v>375.5486939768089</v>
+        <v>365.0124000240188</v>
       </c>
       <c r="M32" t="n">
-        <v>592.524321239713</v>
+        <v>581.9880272869229</v>
       </c>
       <c r="N32" t="n">
-        <v>878.8988163403268</v>
+        <v>857.8262284347467</v>
       </c>
       <c r="O32" t="n">
-        <v>1028.093766482975</v>
+        <v>1038.630060435765</v>
       </c>
       <c r="P32" t="n">
-        <v>1117.753821775026</v>
+        <v>1128.290115727816</v>
       </c>
       <c r="Q32" t="n">
         <v>1188.383002446001</v>
@@ -6742,10 +6742,10 @@
         <v>1188.383002446001</v>
       </c>
       <c r="X32" t="n">
-        <v>897.0720986828031</v>
+        <v>888.2862846566065</v>
       </c>
       <c r="Y32" t="n">
-        <v>596.975380893409</v>
+        <v>588.1895668672123</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>343.1601201297688</v>
+        <v>417.9645058644846</v>
       </c>
       <c r="C33" t="n">
-        <v>250.861945346524</v>
+        <v>314.9161076828212</v>
       </c>
       <c r="D33" t="n">
-        <v>184.082390183155</v>
+        <v>314.9161076828212</v>
       </c>
       <c r="E33" t="n">
-        <v>184.082390183155</v>
+        <v>227.0832837768293</v>
       </c>
       <c r="F33" t="n">
-        <v>119.7026867079221</v>
+        <v>151.9533569031779</v>
       </c>
       <c r="G33" t="n">
-        <v>63.12671578841982</v>
+        <v>84.62716258525703</v>
       </c>
       <c r="H33" t="n">
-        <v>31.91243469388134</v>
+        <v>42.66265809229994</v>
       </c>
       <c r="I33" t="n">
         <v>23.76766004892002</v>
@@ -6785,46 +6785,46 @@
         <v>149.1252201067574</v>
       </c>
       <c r="L33" t="n">
-        <v>149.1252201067574</v>
+        <v>379.0883259751066</v>
       </c>
       <c r="M33" t="n">
-        <v>393.4667591299732</v>
+        <v>673.2131190804918</v>
       </c>
       <c r="N33" t="n">
-        <v>687.5915522353584</v>
+        <v>967.337912185877</v>
       </c>
       <c r="O33" t="n">
-        <v>936.3449663193207</v>
+        <v>1005.73952483265</v>
       </c>
       <c r="P33" t="n">
-        <v>1118.988443932672</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="Q33" t="n">
         <v>1188.383002446001</v>
       </c>
       <c r="R33" t="n">
-        <v>1169.368327496769</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="S33" t="n">
-        <v>1146.097508232866</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="T33" t="n">
-        <v>1026.065768089514</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="U33" t="n">
-        <v>879.9970043237853</v>
+        <v>1031.564015281853</v>
       </c>
       <c r="V33" t="n">
-        <v>726.9997505899248</v>
+        <v>867.8165381495744</v>
       </c>
       <c r="W33" t="n">
-        <v>554.9172483596053</v>
+        <v>787.5777485566487</v>
       </c>
       <c r="X33" t="n">
-        <v>429.2206026519547</v>
+        <v>651.1308794505794</v>
       </c>
       <c r="Y33" t="n">
-        <v>429.2206026519547</v>
+        <v>514.775211785089</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>553.1139124824288</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="C34" t="n">
-        <v>466.332584052404</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="D34" t="n">
-        <v>398.3707991379505</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="E34" t="n">
-        <v>332.6125600534396</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8774670534115</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="G34" t="n">
-        <v>180.3444636134565</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="H34" t="n">
-        <v>98.63348729574317</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="I34" t="n">
-        <v>23.76766004892002</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="J34" t="n">
-        <v>23.76766004892002</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="K34" t="n">
-        <v>82.24083603467034</v>
+        <v>706.6265435805642</v>
       </c>
       <c r="L34" t="n">
-        <v>190.0749339357577</v>
+        <v>803.9243475288614</v>
       </c>
       <c r="M34" t="n">
-        <v>309.7829450213542</v>
+        <v>913.0960646616678</v>
       </c>
       <c r="N34" t="n">
-        <v>433.9937685701648</v>
+        <v>1026.770594257688</v>
       </c>
       <c r="O34" t="n">
-        <v>538.8530180984385</v>
+        <v>1121.093549833172</v>
       </c>
       <c r="P34" t="n">
-        <v>616.6787646640573</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="Q34" t="n">
-        <v>616.6787646640573</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="R34" t="n">
-        <v>616.6787646640573</v>
+        <v>1188.383002446001</v>
       </c>
       <c r="S34" t="n">
-        <v>616.6787646640573</v>
+        <v>1035.339610242386</v>
       </c>
       <c r="T34" t="n">
-        <v>553.1139124824288</v>
+        <v>876.4961712122725</v>
       </c>
       <c r="U34" t="n">
-        <v>553.1139124824288</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="V34" t="n">
-        <v>553.1139124824288</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="W34" t="n">
-        <v>553.1139124824288</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="X34" t="n">
-        <v>553.1139124824288</v>
+        <v>658.6896615476039</v>
       </c>
       <c r="Y34" t="n">
-        <v>553.1139124824288</v>
+        <v>658.6896615476039</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>845.0098823844916</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>666.2141732531998</v>
+        <v>775.4202082779468</v>
       </c>
       <c r="T35" t="n">
-        <v>473.2005045482857</v>
+        <v>572.5653014716352</v>
       </c>
       <c r="U35" t="n">
-        <v>473.2005045482857</v>
+        <v>341.1752397726921</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>341.1752397726921</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>97.726463128592</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>625.4930490027556</v>
+        <v>280.0642837132624</v>
       </c>
       <c r="C36" t="n">
-        <v>483.3756940107867</v>
+        <v>280.0642837132624</v>
       </c>
       <c r="D36" t="n">
-        <v>366.7769586386935</v>
+        <v>280.0642837132624</v>
       </c>
       <c r="E36" t="n">
-        <v>239.8751779223961</v>
+        <v>143.3212648955673</v>
       </c>
       <c r="F36" t="n">
-        <v>125.6762942384391</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>895.22330035268</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>821.3809929772085</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>821.3809929772085</v>
+        <v>784.3649970571628</v>
       </c>
       <c r="U36" t="n">
-        <v>625.4930490027556</v>
+        <v>578.6358149813123</v>
       </c>
       <c r="V36" t="n">
-        <v>625.4930490027556</v>
+        <v>365.97814293733</v>
       </c>
       <c r="W36" t="n">
-        <v>625.4930490027556</v>
+        <v>365.97814293733</v>
       </c>
       <c r="X36" t="n">
-        <v>625.4930490027556</v>
+        <v>280.0642837132624</v>
       </c>
       <c r="Y36" t="n">
-        <v>625.4930490027556</v>
+        <v>280.0642837132624</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>720.6083788665362</v>
+        <v>758.5620408003794</v>
       </c>
       <c r="C37" t="n">
-        <v>720.6083788665362</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="D37" t="n">
-        <v>720.6083788665362</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="E37" t="n">
-        <v>720.6083788665362</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="F37" t="n">
-        <v>720.6083788665362</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="G37" t="n">
-        <v>720.6083788665362</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="H37" t="n">
-        <v>664.1127220309221</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="I37" t="n">
-        <v>664.1127220309221</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="J37" t="n">
-        <v>664.1127220309221</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="K37" t="n">
-        <v>673.7581194941019</v>
+        <v>721.9851068100007</v>
       </c>
       <c r="L37" t="n">
-        <v>732.7644388726187</v>
+        <v>771.3460287253378</v>
       </c>
       <c r="M37" t="n">
-        <v>803.6446714356447</v>
+        <v>832.580863825184</v>
       </c>
       <c r="N37" t="n">
-        <v>879.0277164618848</v>
+        <v>898.3185113882444</v>
       </c>
       <c r="O37" t="n">
-        <v>935.0591874675879</v>
+        <v>944.7045849307676</v>
       </c>
       <c r="P37" t="n">
         <v>964.0571555106362</v>
@@ -7134,13 +7134,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>720.6083788665362</v>
+        <v>758.5620408003794</v>
       </c>
       <c r="Y37" t="n">
-        <v>720.6083788665362</v>
+        <v>758.5620408003794</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>157.4748991337391</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>157.4748991337391</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>157.4748991337391</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>835.168644283094</v>
       </c>
       <c r="S38" t="n">
-        <v>775.4202082779468</v>
+        <v>835.168644283094</v>
       </c>
       <c r="T38" t="n">
-        <v>572.5653014716352</v>
+        <v>632.3137374767823</v>
       </c>
       <c r="U38" t="n">
-        <v>341.1752397726921</v>
+        <v>400.9236757778392</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>400.9236757778392</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>400.9236757778392</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>157.4748991337391</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>157.4748991337391</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.7211165837035</v>
+        <v>406.5042571867532</v>
       </c>
       <c r="C39" t="n">
-        <v>145.7211165837035</v>
+        <v>406.5042571867532</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>280.0642837132624</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>143.3212648955673</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>885.3820622512824</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>885.3820622512824</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>885.3820622512824</v>
       </c>
       <c r="U39" t="n">
-        <v>758.3279734347857</v>
+        <v>885.3820622512824</v>
       </c>
       <c r="V39" t="n">
-        <v>545.6703013908034</v>
+        <v>672.7243902073001</v>
       </c>
       <c r="W39" t="n">
-        <v>313.9273808503622</v>
+        <v>552.2251580190607</v>
       </c>
       <c r="X39" t="n">
-        <v>313.9273808503622</v>
+        <v>552.2251580190607</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.7211165837035</v>
+        <v>552.2251580190607</v>
       </c>
     </row>
     <row r="40">
@@ -7371,10 +7371,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>927.4802215202576</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>721.9851068100007</v>
+        <v>758.5620408003794</v>
       </c>
       <c r="Y40" t="n">
         <v>721.9851068100007</v>
@@ -7390,16 +7390,16 @@
         <v>224.3258469353644</v>
       </c>
       <c r="C41" t="n">
-        <v>167.6779057900704</v>
+        <v>174.4303403745895</v>
       </c>
       <c r="D41" t="n">
-        <v>167.6779057900704</v>
+        <v>174.4303403745895</v>
       </c>
       <c r="E41" t="n">
-        <v>111.0299646447763</v>
+        <v>117.7823992292954</v>
       </c>
       <c r="F41" t="n">
-        <v>54.38202349948227</v>
+        <v>61.13445808400134</v>
       </c>
       <c r="G41" t="n">
         <v>4.486516938707289</v>
@@ -7414,19 +7414,19 @@
         <v>4.486516938707289</v>
       </c>
       <c r="K41" t="n">
-        <v>60.00716405520999</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="L41" t="n">
-        <v>115.5278111717127</v>
+        <v>57.76390558585635</v>
       </c>
       <c r="M41" t="n">
-        <v>168.8051998188618</v>
+        <v>113.2845527023591</v>
       </c>
       <c r="N41" t="n">
         <v>168.8051998188618</v>
       </c>
       <c r="O41" t="n">
-        <v>168.8051998188618</v>
+        <v>224.3258469353644</v>
       </c>
       <c r="P41" t="n">
         <v>224.3258469353644</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>111.0299646447763</v>
+        <v>61.13445808400134</v>
       </c>
       <c r="C42" t="n">
-        <v>54.38202349948227</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="D42" t="n">
-        <v>54.38202349948227</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="E42" t="n">
-        <v>54.38202349948227</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="F42" t="n">
-        <v>54.38202349948227</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="G42" t="n">
-        <v>54.38202349948227</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="H42" t="n">
-        <v>54.38202349948227</v>
+        <v>4.486516938707289</v>
       </c>
       <c r="I42" t="n">
         <v>4.486516938707289</v>
@@ -7493,19 +7493,19 @@
         <v>4.486516938707289</v>
       </c>
       <c r="K42" t="n">
+        <v>4.486516938707289</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.486516938707289</v>
+      </c>
+      <c r="M42" t="n">
         <v>60.00716405520999</v>
-      </c>
-      <c r="L42" t="n">
-        <v>115.5278111717127</v>
-      </c>
-      <c r="M42" t="n">
-        <v>115.5278111717127</v>
       </c>
       <c r="N42" t="n">
         <v>115.5278111717127</v>
       </c>
       <c r="O42" t="n">
-        <v>168.8051998188618</v>
+        <v>171.0484582882154</v>
       </c>
       <c r="P42" t="n">
         <v>224.3258469353644</v>
@@ -7514,28 +7514,28 @@
         <v>224.3258469353644</v>
       </c>
       <c r="R42" t="n">
-        <v>167.6779057900704</v>
+        <v>224.3258469353644</v>
       </c>
       <c r="S42" t="n">
-        <v>167.6779057900704</v>
+        <v>174.4303403745895</v>
       </c>
       <c r="T42" t="n">
-        <v>167.6779057900704</v>
+        <v>117.7823992292954</v>
       </c>
       <c r="U42" t="n">
-        <v>167.6779057900704</v>
+        <v>61.13445808400134</v>
       </c>
       <c r="V42" t="n">
-        <v>111.0299646447763</v>
+        <v>61.13445808400134</v>
       </c>
       <c r="W42" t="n">
-        <v>111.0299646447763</v>
+        <v>61.13445808400134</v>
       </c>
       <c r="X42" t="n">
-        <v>111.0299646447763</v>
+        <v>61.13445808400134</v>
       </c>
       <c r="Y42" t="n">
-        <v>111.0299646447763</v>
+        <v>61.13445808400134</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.8256222612605</v>
+        <v>128.2068461699725</v>
       </c>
       <c r="C43" t="n">
         <v>128.2068461699725</v>
@@ -7590,31 +7590,31 @@
         <v>195.4735634065545</v>
       </c>
       <c r="Q43" t="n">
-        <v>195.4735634065545</v>
+        <v>184.8547873152665</v>
       </c>
       <c r="R43" t="n">
-        <v>195.4735634065545</v>
+        <v>184.8547873152665</v>
       </c>
       <c r="S43" t="n">
-        <v>138.8256222612605</v>
+        <v>128.2068461699725</v>
       </c>
       <c r="T43" t="n">
-        <v>138.8256222612605</v>
+        <v>128.2068461699725</v>
       </c>
       <c r="U43" t="n">
-        <v>138.8256222612605</v>
+        <v>128.2068461699725</v>
       </c>
       <c r="V43" t="n">
-        <v>138.8256222612605</v>
+        <v>128.2068461699725</v>
       </c>
       <c r="W43" t="n">
-        <v>138.8256222612605</v>
+        <v>128.2068461699725</v>
       </c>
       <c r="X43" t="n">
-        <v>138.8256222612605</v>
+        <v>128.2068461699725</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.8256222612605</v>
+        <v>128.2068461699725</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.7823992292954</v>
+        <v>167.6779057900704</v>
       </c>
       <c r="C44" t="n">
-        <v>117.7823992292954</v>
+        <v>167.6779057900704</v>
       </c>
       <c r="D44" t="n">
-        <v>117.7823992292954</v>
+        <v>167.6779057900704</v>
       </c>
       <c r="E44" t="n">
-        <v>117.7823992292954</v>
+        <v>167.6779057900704</v>
       </c>
       <c r="F44" t="n">
-        <v>117.7823992292954</v>
+        <v>167.6779057900704</v>
       </c>
       <c r="G44" t="n">
         <v>117.7823992292954</v>
@@ -7651,10 +7651,10 @@
         <v>4.486516938707289</v>
       </c>
       <c r="K44" t="n">
-        <v>4.486516938707289</v>
+        <v>60.00716405520999</v>
       </c>
       <c r="L44" t="n">
-        <v>57.76390558585635</v>
+        <v>60.00716405520999</v>
       </c>
       <c r="M44" t="n">
         <v>113.2845527023591</v>
@@ -7678,22 +7678,22 @@
         <v>224.3258469353644</v>
       </c>
       <c r="T44" t="n">
-        <v>174.4303403745895</v>
+        <v>224.3258469353644</v>
       </c>
       <c r="U44" t="n">
-        <v>174.4303403745895</v>
+        <v>224.3258469353644</v>
       </c>
       <c r="V44" t="n">
-        <v>174.4303403745895</v>
+        <v>224.3258469353644</v>
       </c>
       <c r="W44" t="n">
-        <v>174.4303403745895</v>
+        <v>167.6779057900704</v>
       </c>
       <c r="X44" t="n">
-        <v>174.4303403745895</v>
+        <v>167.6779057900704</v>
       </c>
       <c r="Y44" t="n">
-        <v>117.7823992292954</v>
+        <v>167.6779057900704</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>167.6779057900704</v>
       </c>
       <c r="D45" t="n">
-        <v>167.6779057900704</v>
+        <v>111.0299646447763</v>
       </c>
       <c r="E45" t="n">
-        <v>111.0299646447763</v>
+        <v>61.13445808400134</v>
       </c>
       <c r="F45" t="n">
         <v>61.13445808400134</v>
@@ -7733,16 +7733,16 @@
         <v>4.486516938707289</v>
       </c>
       <c r="L45" t="n">
+        <v>4.486516938707289</v>
+      </c>
+      <c r="M45" t="n">
         <v>60.00716405520999</v>
       </c>
-      <c r="M45" t="n">
-        <v>115.5278111717127</v>
-      </c>
       <c r="N45" t="n">
-        <v>115.5278111717127</v>
+        <v>113.2845527023591</v>
       </c>
       <c r="O45" t="n">
-        <v>115.5278111717127</v>
+        <v>113.2845527023591</v>
       </c>
       <c r="P45" t="n">
         <v>168.8051998188618</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>276.1713127788216</v>
       </c>
       <c r="L11" t="n">
         <v>291.8478767038283</v>
@@ -8704,7 +8704,7 @@
         <v>283.2286076846203</v>
       </c>
       <c r="O11" t="n">
-        <v>286.1796731555278</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>193.9229007082001</v>
+        <v>191.6569830623883</v>
       </c>
       <c r="L12" t="n">
-        <v>194.6358415137153</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -8783,10 +8783,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>198.6777061782855</v>
       </c>
       <c r="P12" t="n">
-        <v>187.7899515023596</v>
+        <v>190.0558691481714</v>
       </c>
       <c r="Q12" t="n">
         <v>196.0632358198626</v>
@@ -8932,7 +8932,7 @@
         <v>276.1713127788216</v>
       </c>
       <c r="L14" t="n">
-        <v>291.8478767038283</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>284.1617773153021</v>
@@ -8944,7 +8944,7 @@
         <v>286.1796731555278</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>287.3144574891106</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,10 +9011,10 @@
         <v>193.9229007082001</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>192.3699238679035</v>
       </c>
       <c r="M15" t="n">
-        <v>195.9495780100477</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9023,10 +9023,10 @@
         <v>198.6777061782855</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>190.0558691481714</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.0632358198626</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>156.657703775419</v>
+        <v>283.2815018136386</v>
       </c>
       <c r="N24" t="n">
         <v>428.4374626948335</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>214.1791217780641</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>439.2297845335185</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5144859200572</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10433,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>388.943669299004</v>
+        <v>439.2297845335185</v>
       </c>
       <c r="N33" t="n">
         <v>428.4374626948335</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>181.3857521684575</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>276.1713127788216</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>291.8478767038283</v>
+        <v>289.5819590580166</v>
       </c>
       <c r="M41" t="n">
-        <v>284.1617773153021</v>
+        <v>286.4276949611138</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>285.494525330432</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>286.1796731555278</v>
       </c>
       <c r="P41" t="n">
-        <v>287.3144574891106</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.9229007082001</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>194.6358415137153</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>198.2154956558594</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>187.4231738171744</v>
       </c>
       <c r="O42" t="n">
-        <v>196.4117885324738</v>
+        <v>198.6777061782855</v>
       </c>
       <c r="P42" t="n">
-        <v>190.0558691481714</v>
+        <v>187.7899515023596</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>276.1713127788216</v>
       </c>
       <c r="L44" t="n">
-        <v>289.5819590580166</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>286.4276949611138</v>
+        <v>284.1617773153021</v>
       </c>
       <c r="N44" t="n">
         <v>285.494525330432</v>
@@ -11381,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>194.6358415137153</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>198.2154956558594</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>185.1572561713627</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>187.7899515023596</v>
+        <v>190.0558691481714</v>
       </c>
       <c r="Q45" t="n">
         <v>196.0632358198626</v>
@@ -23311,10 +23311,10 @@
         <v>140.9893184977917</v>
       </c>
       <c r="T11" t="n">
-        <v>155.0650984756777</v>
+        <v>161.7500087143516</v>
       </c>
       <c r="U11" t="n">
-        <v>189.9998120580568</v>
+        <v>183.3149018193829</v>
       </c>
       <c r="V11" t="n">
         <v>315.8029691155224</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.3701024969497</v>
+        <v>167.8826908273248</v>
       </c>
       <c r="C13" t="n">
         <v>155.2975317440153</v>
@@ -23442,7 +23442,7 @@
         <v>81.40989076206026</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>10.32020247127033</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>155.9858469485186</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>195.1635092720235</v>
       </c>
       <c r="U13" t="n">
         <v>274.3697400018784</v>
@@ -23503,19 +23503,19 @@
         <v>342.7337522660704</v>
       </c>
       <c r="E14" t="n">
-        <v>313.8996189838082</v>
+        <v>369.9810807176493</v>
       </c>
       <c r="F14" t="n">
-        <v>338.8452946532578</v>
+        <v>394.9267563870989</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2719864266815</v>
+        <v>403.3534481605225</v>
       </c>
       <c r="H14" t="n">
-        <v>278.1289612659874</v>
+        <v>327.5255127611546</v>
       </c>
       <c r="I14" t="n">
-        <v>198.5266002157934</v>
+        <v>149.1300487206262</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>137.9198285865372</v>
+        <v>81.83836685269605</v>
       </c>
       <c r="S14" t="n">
-        <v>197.0707802316328</v>
+        <v>140.9893184977917</v>
       </c>
       <c r="T14" t="n">
         <v>211.1465602095188</v>
       </c>
       <c r="U14" t="n">
-        <v>239.396363553224</v>
+        <v>183.3149018193829</v>
       </c>
       <c r="V14" t="n">
         <v>315.8029691155224</v>
@@ -23585,7 +23585,7 @@
         <v>145.6957911007884</v>
       </c>
       <c r="F15" t="n">
-        <v>133.1199230387714</v>
+        <v>83.72337154360413</v>
       </c>
       <c r="G15" t="n">
         <v>125.3942278085981</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>32.12708306418951</v>
+        <v>88.20854479803062</v>
       </c>
       <c r="S15" t="n">
         <v>103.6524200153842</v>
@@ -23630,13 +23630,13 @@
         <v>132.133977606368</v>
       </c>
       <c r="U15" t="n">
-        <v>164.5955412311951</v>
+        <v>213.9920927263623</v>
       </c>
       <c r="V15" t="n">
         <v>220.8512977948128</v>
       </c>
       <c r="W15" t="n">
-        <v>239.7456938063071</v>
+        <v>183.664232072466</v>
       </c>
       <c r="X15" t="n">
         <v>193.823695848865</v>
@@ -23652,34 +23652,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.8826908273248</v>
+        <v>111.8012290934837</v>
       </c>
       <c r="C16" t="n">
         <v>155.2975317440153</v>
       </c>
       <c r="D16" t="n">
-        <v>136.6661836635998</v>
+        <v>80.58472192975873</v>
       </c>
       <c r="E16" t="n">
-        <v>134.4846732919567</v>
+        <v>78.40321155811554</v>
       </c>
       <c r="F16" t="n">
         <v>133.4717586683187</v>
       </c>
       <c r="G16" t="n">
-        <v>99.96022827000513</v>
+        <v>135.2088992022008</v>
       </c>
       <c r="H16" t="n">
-        <v>139.7652948224519</v>
+        <v>150.2778831528271</v>
       </c>
       <c r="I16" t="n">
-        <v>87.41972383880466</v>
+        <v>143.5011855726458</v>
       </c>
       <c r="J16" t="n">
-        <v>25.32842902821915</v>
+        <v>81.40989076206026</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>10.32020247127033</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>356.0836411867049</v>
+        <v>347.2136323364243</v>
       </c>
       <c r="C17" t="n">
-        <v>338.6226912942319</v>
+        <v>329.7526824439514</v>
       </c>
       <c r="D17" t="n">
-        <v>328.0328411439073</v>
+        <v>319.1628322936267</v>
       </c>
       <c r="E17" t="n">
-        <v>355.2801695954861</v>
+        <v>346.4101607452055</v>
       </c>
       <c r="F17" t="n">
-        <v>380.2258452649357</v>
+        <v>371.3558364146552</v>
       </c>
       <c r="G17" t="n">
-        <v>388.6525370383594</v>
+        <v>203.2185572212676</v>
       </c>
       <c r="H17" t="n">
-        <v>312.8246016389915</v>
+        <v>303.9545927887109</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>174.9556802433497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>123.218917464374</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.02269632275626</v>
+        <v>173.4998602591891</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>60.08776911570015</v>
+        <v>51.21776026541966</v>
       </c>
       <c r="W17" t="n">
-        <v>322.5907682406373</v>
+        <v>313.7207593903568</v>
       </c>
       <c r="X17" t="n">
-        <v>343.0809002016933</v>
+        <v>334.2108913514128</v>
       </c>
       <c r="Y17" t="n">
-        <v>359.5877381792779</v>
+        <v>350.7177293289974</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>139.8829831730917</v>
+        <v>131.0129743228111</v>
       </c>
       <c r="C18" t="n">
-        <v>146.0582985115401</v>
+        <v>137.1882896612595</v>
       </c>
       <c r="D18" t="n">
-        <v>120.7948650878631</v>
+        <v>111.9248562375825</v>
       </c>
       <c r="E18" t="n">
-        <v>130.9948799786253</v>
+        <v>122.1248711283447</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>109.5490030663277</v>
       </c>
       <c r="G18" t="n">
-        <v>110.693316686435</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>85.58524375972078</v>
+        <v>76.71523490944024</v>
       </c>
       <c r="I18" t="n">
-        <v>62.7464323746394</v>
+        <v>53.87642352435886</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>73.50763367586745</v>
+        <v>64.63762482558691</v>
       </c>
       <c r="S18" t="n">
-        <v>137.7328659549457</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>173.5145282180459</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.280377822369</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>44.15125916848535</v>
       </c>
       <c r="Y18" t="n">
-        <v>179.0324953005287</v>
+        <v>170.1624864502481</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.1817797051616</v>
+        <v>100.9822253853677</v>
       </c>
       <c r="C19" t="n">
-        <v>140.5966206218522</v>
+        <v>131.7266117715716</v>
       </c>
       <c r="D19" t="n">
-        <v>121.9652725414367</v>
+        <v>113.0952636911561</v>
       </c>
       <c r="E19" t="n">
-        <v>119.7837621697935</v>
+        <v>110.9137533195129</v>
       </c>
       <c r="F19" t="n">
-        <v>118.7708475461556</v>
+        <v>109.900838695875</v>
       </c>
       <c r="G19" t="n">
-        <v>141.3407788816831</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>135.5769720306639</v>
+        <v>126.7069631803834</v>
       </c>
       <c r="I19" t="n">
-        <v>128.8002744504826</v>
+        <v>119.9302656002021</v>
       </c>
       <c r="J19" t="n">
-        <v>66.70897963989711</v>
+        <v>57.83897078961655</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.51184277491871</v>
+        <v>50.64183392463816</v>
       </c>
       <c r="R19" t="n">
-        <v>150.6431909003938</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.3663975601966</v>
+        <v>188.496388709916</v>
       </c>
       <c r="T19" t="n">
-        <v>201.2953889515058</v>
+        <v>192.4253801012253</v>
       </c>
       <c r="U19" t="n">
-        <v>259.6688288797152</v>
+        <v>250.7988200294347</v>
       </c>
       <c r="V19" t="n">
-        <v>225.4874428470523</v>
+        <v>216.6174339967718</v>
       </c>
       <c r="W19" t="n">
-        <v>193.5197292660074</v>
+        <v>251.0027890095348</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>190.1894460619809</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.9344528753191</v>
+        <v>183.0644440250386</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.47726713662604</v>
+        <v>57.77825049617923</v>
       </c>
       <c r="C20" t="n">
-        <v>48.28741400993596</v>
+        <v>134.9740194894305</v>
       </c>
       <c r="D20" t="n">
-        <v>278.7118527372704</v>
+        <v>270.7417393310407</v>
       </c>
       <c r="E20" t="n">
-        <v>64.94489231119019</v>
+        <v>297.9890677826195</v>
       </c>
       <c r="F20" t="n">
-        <v>330.9048568582989</v>
+        <v>322.9347434520691</v>
       </c>
       <c r="G20" t="n">
-        <v>339.3315486317225</v>
+        <v>331.3614352254928</v>
       </c>
       <c r="H20" t="n">
-        <v>22.48932435469555</v>
+        <v>255.5334998261248</v>
       </c>
       <c r="I20" t="n">
-        <v>134.5047006869934</v>
+        <v>126.5345872807636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.89792905773713</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.0488807028328</v>
+        <v>125.078767296603</v>
       </c>
       <c r="T20" t="n">
-        <v>147.1246606807188</v>
+        <v>139.154547274489</v>
       </c>
       <c r="U20" t="n">
-        <v>175.374464024424</v>
+        <v>167.4043506181942</v>
       </c>
       <c r="V20" t="n">
-        <v>251.7810695867224</v>
+        <v>2.796667302833526</v>
       </c>
       <c r="W20" t="n">
-        <v>273.2697798340005</v>
+        <v>265.2996664277707</v>
       </c>
       <c r="X20" t="n">
-        <v>293.7599117950565</v>
+        <v>285.7897983888267</v>
       </c>
       <c r="Y20" t="n">
-        <v>310.266749772641</v>
+        <v>61.28234748875218</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>90.56199476645479</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>96.73731010490319</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>71.4738766812262</v>
+        <v>63.50376327499643</v>
       </c>
       <c r="E21" t="n">
-        <v>81.67389157198839</v>
+        <v>73.70377816575862</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>57.22833458298163</v>
       </c>
       <c r="G21" t="n">
-        <v>61.37232827979808</v>
+        <v>53.40221487356831</v>
       </c>
       <c r="H21" t="n">
-        <v>36.26425535308391</v>
+        <v>28.29414194685414</v>
       </c>
       <c r="I21" t="n">
-        <v>13.42544396800253</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>24.18664526923058</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>95.71198222042527</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>167.7536808712773</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.8607912985247</v>
+        <v>95.89067789229497</v>
       </c>
       <c r="C22" t="n">
-        <v>91.27563221521528</v>
+        <v>83.30551880898551</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>64.67417072857003</v>
       </c>
       <c r="E22" t="n">
-        <v>70.46277376315662</v>
+        <v>62.49266035692685</v>
       </c>
       <c r="F22" t="n">
-        <v>69.44985913951869</v>
+        <v>61.47974573328892</v>
       </c>
       <c r="G22" t="n">
-        <v>92.01979047504621</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>78.28587021779725</v>
       </c>
       <c r="I22" t="n">
-        <v>79.47928604384573</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>17.38799123326022</v>
+        <v>9.417877827030452</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.19085436828183</v>
+        <v>2.220740962052062</v>
       </c>
       <c r="R22" t="n">
-        <v>4.792752020874275</v>
+        <v>93.35208908752716</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>140.0752957473299</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>144.0042871386392</v>
       </c>
       <c r="U22" t="n">
-        <v>210.3478404730783</v>
+        <v>202.3777270668486</v>
       </c>
       <c r="V22" t="n">
-        <v>176.1664544404155</v>
+        <v>65.7866630601485</v>
       </c>
       <c r="W22" t="n">
-        <v>210.5518094531785</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>149.7384665056246</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.6134644686823</v>
+        <v>134.6433510624525</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.696788762338088</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>268.9690270168868</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>296.2163554684656</v>
+        <v>0.8933171711192927</v>
       </c>
       <c r="F23" t="n">
-        <v>321.1620311379153</v>
+        <v>322.9347434520691</v>
       </c>
       <c r="G23" t="n">
-        <v>329.5887229113389</v>
+        <v>331.3614352254928</v>
       </c>
       <c r="H23" t="n">
-        <v>253.760787511971</v>
+        <v>255.5334998261248</v>
       </c>
       <c r="I23" t="n">
-        <v>124.7618749666097</v>
+        <v>126.5345872807636</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>64.15510333735349</v>
+        <v>65.92781565150736</v>
       </c>
       <c r="S23" t="n">
-        <v>123.3060549824492</v>
+        <v>125.078767296603</v>
       </c>
       <c r="T23" t="n">
-        <v>137.3818349603352</v>
+        <v>139.154547274489</v>
       </c>
       <c r="U23" t="n">
-        <v>165.6316383040403</v>
+        <v>167.4043506181942</v>
       </c>
       <c r="V23" t="n">
-        <v>242.0382438663387</v>
+        <v>243.8109561804926</v>
       </c>
       <c r="W23" t="n">
-        <v>263.5269541136169</v>
+        <v>265.2996664277707</v>
       </c>
       <c r="X23" t="n">
-        <v>4.722351939958969</v>
+        <v>285.7897983888267</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.428173440757178</v>
+        <v>295.5922774287076</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>82.59188136022502</v>
       </c>
       <c r="C24" t="n">
-        <v>83.43086590125837</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.455330561772755</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>16.45637160908618</v>
       </c>
       <c r="T24" t="n">
-        <v>114.4507140910254</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>121.741393487662</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.11796557814111</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>81.53280649483165</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>62.90145841441617</v>
+        <v>64.67417072857003</v>
       </c>
       <c r="E25" t="n">
-        <v>60.71994804277298</v>
+        <v>4.376913582009863</v>
       </c>
       <c r="F25" t="n">
-        <v>59.70703341913506</v>
+        <v>61.47974573328892</v>
       </c>
       <c r="G25" t="n">
-        <v>82.27696475466257</v>
+        <v>84.04967706881644</v>
       </c>
       <c r="H25" t="n">
-        <v>76.51315790364339</v>
+        <v>78.28587021779725</v>
       </c>
       <c r="I25" t="n">
-        <v>69.7364603234621</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7.645165512876588</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2.220740962052062</v>
       </c>
       <c r="R25" t="n">
-        <v>91.5793767733733</v>
+        <v>93.35208908752716</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>202.3777270668486</v>
       </c>
       <c r="V25" t="n">
-        <v>166.4236287200318</v>
+        <v>168.1963410341857</v>
       </c>
       <c r="W25" t="n">
-        <v>69.65299652962287</v>
+        <v>202.5816960469487</v>
       </c>
       <c r="X25" t="n">
-        <v>139.995640785241</v>
+        <v>141.7683530993948</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.8706387482986</v>
+        <v>134.6433510624525</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.6489139430266</v>
+        <v>300.4216262571804</v>
       </c>
       <c r="C26" t="n">
-        <v>281.1879640505535</v>
+        <v>282.9606763647074</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>297.8454423518078</v>
+        <v>299.6181546659616</v>
       </c>
       <c r="F26" t="n">
-        <v>322.7911180212574</v>
+        <v>324.5638303354113</v>
       </c>
       <c r="G26" t="n">
-        <v>34.12205918318085</v>
+        <v>35.89477149733472</v>
       </c>
       <c r="H26" t="n">
-        <v>255.3898743953131</v>
+        <v>257.162586709467</v>
       </c>
       <c r="I26" t="n">
-        <v>126.3909618499519</v>
+        <v>128.1636741641058</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.78419022069568</v>
+        <v>67.55690253484954</v>
       </c>
       <c r="S26" t="n">
-        <v>124.9351418657913</v>
+        <v>126.7078541799452</v>
       </c>
       <c r="T26" t="n">
-        <v>139.0109218436774</v>
+        <v>140.7836341578312</v>
       </c>
       <c r="U26" t="n">
-        <v>164.7273242955169</v>
+        <v>169.0334375015364</v>
       </c>
       <c r="V26" t="n">
-        <v>243.6673307496809</v>
+        <v>245.4400430638348</v>
       </c>
       <c r="W26" t="n">
-        <v>265.156040996959</v>
+        <v>266.9287533111129</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.012023736442359</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.057260324099389</v>
+        <v>6.829972638253253</v>
       </c>
     </row>
     <row r="27">
@@ -24527,16 +24527,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>63.36013784418475</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>62.75699698708374</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>55.03130175691049</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>16.07290643218913</v>
+        <v>17.84561874634299</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>116.6764496618835</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>22.91615779253478</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>121.5977680568504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.74705246148329</v>
+        <v>97.51976477563716</v>
       </c>
       <c r="C28" t="n">
-        <v>83.16189337817383</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>62.34903492611517</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.1088326166311</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>85.67876395215862</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>73.13825952095814</v>
       </c>
       <c r="J28" t="n">
-        <v>9.27425239621877</v>
+        <v>11.04696471037263</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>93.20846365671548</v>
+        <v>94.98117597086934</v>
       </c>
       <c r="S28" t="n">
-        <v>139.9316703165183</v>
+        <v>141.7043826306721</v>
       </c>
       <c r="T28" t="n">
-        <v>143.8606617078275</v>
+        <v>145.6333740219814</v>
       </c>
       <c r="U28" t="n">
-        <v>202.2341016360369</v>
+        <v>53.79008092333962</v>
       </c>
       <c r="V28" t="n">
-        <v>168.052715603374</v>
+        <v>169.8254279175279</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>204.2107829302909</v>
       </c>
       <c r="X28" t="n">
-        <v>141.6247276685831</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>95.13224047580425</v>
+        <v>136.2724379457946</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.553163331526378</v>
+        <v>300.4216262571804</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>270.598113900229</v>
+        <v>272.3708262143828</v>
       </c>
       <c r="E29" t="n">
-        <v>297.8454423518078</v>
+        <v>299.6181546659616</v>
       </c>
       <c r="F29" t="n">
-        <v>322.7911180212574</v>
+        <v>324.5638303354113</v>
       </c>
       <c r="G29" t="n">
-        <v>331.217809794681</v>
+        <v>332.9905221088349</v>
       </c>
       <c r="H29" t="n">
-        <v>255.3898743953131</v>
+        <v>257.162586709467</v>
       </c>
       <c r="I29" t="n">
-        <v>126.3909618499519</v>
+        <v>128.1636741641058</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.78419022069568</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.9351418657913</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>139.0109218436774</v>
+        <v>140.7836341578312</v>
       </c>
       <c r="U29" t="n">
-        <v>167.2607251873825</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>243.6673307496809</v>
+        <v>35.82547528326381</v>
       </c>
       <c r="W29" t="n">
-        <v>265.156040996959</v>
+        <v>266.9287533111129</v>
       </c>
       <c r="X29" t="n">
-        <v>8.056449258459054</v>
+        <v>287.4188852721689</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.057260324099389</v>
+        <v>6.829972638253253</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>90.3962835820156</v>
       </c>
       <c r="D30" t="n">
-        <v>14.75095868552461</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>62.75699698708374</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>55.03130175691049</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>26.28016607986779</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>17.84561874634299</v>
       </c>
       <c r="S30" t="n">
-        <v>87.59824338338382</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>121.5977680568504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.74705246148329</v>
+        <v>97.51976477563716</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>84.93460569232769</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>66.30325761191222</v>
       </c>
       <c r="E31" t="n">
-        <v>62.34903492611517</v>
+        <v>64.12174724026903</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>83.90605163800475</v>
+        <v>85.67876395215862</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>79.91495710113944</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.077115531240381</v>
+        <v>3.849827845394245</v>
       </c>
       <c r="R31" t="n">
-        <v>60.08998812592628</v>
+        <v>94.98117597086934</v>
       </c>
       <c r="S31" t="n">
-        <v>139.9316703165183</v>
+        <v>141.7043826306721</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8606617078275</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>204.0068139501907</v>
       </c>
       <c r="V31" t="n">
-        <v>168.052715603374</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>202.438070616137</v>
+        <v>204.2107829302909</v>
       </c>
       <c r="X31" t="n">
-        <v>141.6247276685831</v>
+        <v>143.397439982737</v>
       </c>
       <c r="Y31" t="n">
-        <v>134.4997256316408</v>
+        <v>6.286728232634914</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>301.4005357105772</v>
+        <v>312.0432568750116</v>
       </c>
       <c r="C32" t="n">
-        <v>283.9395858181042</v>
+        <v>294.5823069825386</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>264.6126523139576</v>
+        <v>311.2397852837928</v>
       </c>
       <c r="F32" t="n">
-        <v>325.542739788808</v>
+        <v>330.1844473626452</v>
       </c>
       <c r="G32" t="n">
-        <v>333.9694315622316</v>
+        <v>344.6121527266661</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>129.1425836175025</v>
+        <v>139.785304781937</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.53581198824631</v>
+        <v>79.17853315268073</v>
       </c>
       <c r="S32" t="n">
-        <v>127.686763633342</v>
+        <v>138.3294847977764</v>
       </c>
       <c r="T32" t="n">
-        <v>141.762543611228</v>
+        <v>152.4052647756624</v>
       </c>
       <c r="U32" t="n">
-        <v>170.0123469549331</v>
+        <v>180.6550681193675</v>
       </c>
       <c r="V32" t="n">
-        <v>246.4189525172315</v>
+        <v>257.061673681666</v>
       </c>
       <c r="W32" t="n">
-        <v>267.9076627645096</v>
+        <v>278.550383928944</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.944765278499858</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.808882091650048</v>
+        <v>18.45160325608447</v>
       </c>
     </row>
     <row r="33">
@@ -25001,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>76.7544807761698</v>
       </c>
       <c r="E33" t="n">
-        <v>76.31177450249757</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.46724936417418</v>
       </c>
       <c r="S33" t="n">
-        <v>67.31175407967055</v>
+        <v>100.9925863153689</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>129.4741439063527</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>101.5679966754542</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>124.349389824401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.49867422903392</v>
+        <v>109.1413953934683</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>96.55623631015888</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.9248882297434</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>75.74337785810022</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.73046323446229</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>97.30039456998981</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>91.53658771897062</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>84.75989013878933</v>
       </c>
       <c r="J34" t="n">
-        <v>12.0258741637694</v>
+        <v>22.66859532820382</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.828737298791012</v>
+        <v>15.47145846322543</v>
       </c>
       <c r="R34" t="n">
-        <v>95.96008542426611</v>
+        <v>106.6028065887005</v>
       </c>
       <c r="S34" t="n">
-        <v>142.6832920840689</v>
+        <v>1.813054966924938</v>
       </c>
       <c r="T34" t="n">
-        <v>83.68307981556585</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>204.9857234035875</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>170.8043373709246</v>
+        <v>181.447058535359</v>
       </c>
       <c r="W34" t="n">
-        <v>205.1896923836876</v>
+        <v>215.832413548122</v>
       </c>
       <c r="X34" t="n">
-        <v>144.3763494361338</v>
+        <v>155.0190706005682</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.2513473991914</v>
+        <v>147.8940685636258</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.7215241172141</v>
+        <v>360.4643498375978</v>
       </c>
       <c r="C35" t="n">
-        <v>333.260574224741</v>
+        <v>343.0033999451247</v>
       </c>
       <c r="D35" t="n">
-        <v>322.6707240744165</v>
+        <v>332.4135497948001</v>
       </c>
       <c r="E35" t="n">
-        <v>349.9180525259953</v>
+        <v>359.660878246379</v>
       </c>
       <c r="F35" t="n">
-        <v>374.8637281954449</v>
+        <v>384.6065539158286</v>
       </c>
       <c r="G35" t="n">
-        <v>383.2904199688685</v>
+        <v>393.0332456892522</v>
       </c>
       <c r="H35" t="n">
-        <v>307.4624845695006</v>
+        <v>239.5444434716889</v>
       </c>
       <c r="I35" t="n">
-        <v>178.4635720241394</v>
+        <v>188.2063977445231</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>127.5996261152668</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>219.33333536157</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>87.37406197783523</v>
+        <v>305.482766644252</v>
       </c>
       <c r="W35" t="n">
-        <v>76.21436229348745</v>
+        <v>85.95718801387113</v>
       </c>
       <c r="X35" t="n">
-        <v>337.7187831322025</v>
+        <v>347.4616088525862</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.2256211097871</v>
+        <v>363.9684468301707</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>134.5208661036008</v>
+        <v>144.2636918239845</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>150.4390071624329</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>125.1755737387559</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>115.0740253373278</v>
       </c>
       <c r="H36" t="n">
-        <v>80.22312669022998</v>
+        <v>89.96595241061361</v>
       </c>
       <c r="I36" t="n">
-        <v>57.38431530514858</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.88834232676028</v>
       </c>
       <c r="S36" t="n">
-        <v>66.56696925585456</v>
+        <v>149.413679277955</v>
       </c>
       <c r="T36" t="n">
-        <v>168.1524111485551</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>200.7882696031588</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>219.6826656146531</v>
+        <v>229.4254913350368</v>
       </c>
       <c r="X36" t="n">
-        <v>173.760667657211</v>
+        <v>98.4487727457677</v>
       </c>
       <c r="Y36" t="n">
-        <v>173.6703782310379</v>
+        <v>183.4132039514215</v>
       </c>
     </row>
     <row r="37">
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.8196626356708</v>
+        <v>157.5624883560544</v>
       </c>
       <c r="C37" t="n">
-        <v>135.2345035523613</v>
+        <v>108.7661646222701</v>
       </c>
       <c r="D37" t="n">
-        <v>116.6031554719459</v>
+        <v>126.3459811923295</v>
       </c>
       <c r="E37" t="n">
-        <v>114.4216451003027</v>
+        <v>124.1644708206863</v>
       </c>
       <c r="F37" t="n">
-        <v>113.4087304766647</v>
+        <v>123.1515561970484</v>
       </c>
       <c r="G37" t="n">
-        <v>135.9786618121923</v>
+        <v>145.7214875325759</v>
       </c>
       <c r="H37" t="n">
-        <v>74.2841546939151</v>
+        <v>139.9576806815567</v>
       </c>
       <c r="I37" t="n">
-        <v>123.4381573809918</v>
+        <v>133.1809831013754</v>
       </c>
       <c r="J37" t="n">
-        <v>61.34686257040628</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.14972570542789</v>
+        <v>63.89255142581153</v>
       </c>
       <c r="R37" t="n">
-        <v>145.281073830903</v>
+        <v>155.0238995512866</v>
       </c>
       <c r="S37" t="n">
-        <v>192.0042804907058</v>
+        <v>201.7471062110894</v>
       </c>
       <c r="T37" t="n">
-        <v>195.933271882015</v>
+        <v>205.6760976023986</v>
       </c>
       <c r="U37" t="n">
-        <v>254.3067118102244</v>
+        <v>264.0495375306081</v>
       </c>
       <c r="V37" t="n">
-        <v>220.1253257775615</v>
+        <v>229.8681514979451</v>
       </c>
       <c r="W37" t="n">
-        <v>13.49639191266544</v>
+        <v>264.2535065107081</v>
       </c>
       <c r="X37" t="n">
-        <v>193.6973378427707</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.5723358058283</v>
+        <v>196.3151615262119</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>332.4135497948001</v>
       </c>
       <c r="E38" t="n">
-        <v>359.660878246379</v>
+        <v>222.8490597830878</v>
       </c>
       <c r="F38" t="n">
         <v>384.6065539158286</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>127.5996261152668</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>186.7505777603625</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>227.8218998260566</v>
+        <v>305.482766644252</v>
       </c>
       <c r="W38" t="n">
         <v>326.9714768915302</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>144.2636918239845</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>150.4390071624329</v>
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.3755886295181</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>122.799720567501</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>115.0740253373278</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.88834232676028</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>149.413679277955</v>
@@ -25526,19 +25526,19 @@
         <v>177.8952368689388</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>203.671890255092</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>110.1312514686798</v>
       </c>
       <c r="X39" t="n">
         <v>183.5034933775946</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.88900232742949</v>
+        <v>183.4132039514215</v>
       </c>
     </row>
     <row r="40">
@@ -25611,13 +25611,13 @@
         <v>229.8681514979451</v>
       </c>
       <c r="W40" t="n">
-        <v>228.0423418602333</v>
+        <v>264.2535065107081</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.3151615262119</v>
+        <v>160.1039968757371</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>370.7845523088681</v>
       </c>
       <c r="C41" t="n">
-        <v>297.2421406825539</v>
+        <v>303.9270509212278</v>
       </c>
       <c r="D41" t="n">
         <v>342.7337522660704</v>
@@ -25642,7 +25642,7 @@
         <v>338.8452946532578</v>
       </c>
       <c r="G41" t="n">
-        <v>353.9568966653553</v>
+        <v>347.2719864266815</v>
       </c>
       <c r="H41" t="n">
         <v>327.5255127611546</v>
@@ -25727,7 +25727,7 @@
         <v>100.2861548818839</v>
       </c>
       <c r="I42" t="n">
-        <v>28.05079200163533</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>32.12708306418951</v>
+        <v>88.20854479803062</v>
       </c>
       <c r="S42" t="n">
-        <v>159.7338817492253</v>
+        <v>110.3373302540581</v>
       </c>
       <c r="T42" t="n">
-        <v>188.2154393402091</v>
+        <v>132.133977606368</v>
       </c>
       <c r="U42" t="n">
-        <v>213.9920927263623</v>
+        <v>157.9106309925212</v>
       </c>
       <c r="V42" t="n">
-        <v>164.7698360609716</v>
+        <v>220.8512977948128</v>
       </c>
       <c r="W42" t="n">
         <v>239.7456938063071</v>
@@ -25788,7 +25788,7 @@
         <v>167.8826908273248</v>
       </c>
       <c r="C43" t="n">
-        <v>144.7849434136402</v>
+        <v>155.2975317440153</v>
       </c>
       <c r="D43" t="n">
         <v>136.6661836635998</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.21275389708187</v>
+        <v>63.70016556670675</v>
       </c>
       <c r="R43" t="n">
         <v>165.344102022557</v>
@@ -25879,7 +25879,7 @@
         <v>394.9267563870989</v>
       </c>
       <c r="G44" t="n">
-        <v>403.3534481605225</v>
+        <v>353.9568966653553</v>
       </c>
       <c r="H44" t="n">
         <v>271.4440510273135</v>
@@ -25918,7 +25918,7 @@
         <v>197.0707802316328</v>
       </c>
       <c r="T44" t="n">
-        <v>161.7500087143516</v>
+        <v>211.1465602095188</v>
       </c>
       <c r="U44" t="n">
         <v>239.396363553224</v>
@@ -25927,13 +25927,13 @@
         <v>315.8029691155224</v>
       </c>
       <c r="W44" t="n">
-        <v>337.2916793628005</v>
+        <v>281.2102176289594</v>
       </c>
       <c r="X44" t="n">
         <v>357.7818113238565</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.2071875675999</v>
+        <v>374.2886493014411</v>
       </c>
     </row>
     <row r="45">
@@ -25949,13 +25949,13 @@
         <v>160.7592096337032</v>
       </c>
       <c r="D45" t="n">
-        <v>135.4957762100262</v>
+        <v>79.41431447618513</v>
       </c>
       <c r="E45" t="n">
-        <v>89.61432936694732</v>
+        <v>96.2992396056212</v>
       </c>
       <c r="F45" t="n">
-        <v>83.72337154360413</v>
+        <v>133.1199230387714</v>
       </c>
       <c r="G45" t="n">
         <v>69.31276607475701</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>276585.4016176148</v>
+        <v>276585.4016176147</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>396433.5649729033</v>
+        <v>414351.9365538215</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>496067.2645469835</v>
+        <v>512167.7505741611</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>539109.0271977992</v>
+        <v>535527.9577211804</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>535818.0965340262</v>
+        <v>532237.0270574075</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>535818.0965340264</v>
+        <v>532237.0270574075</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>530259.5247092017</v>
+        <v>508760.0836516645</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407265.6179881021</v>
+        <v>387584.0624843058</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>387584.0624843058</v>
+        <v>387584.0624843057</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>276585.4016176147</v>
+        <v>276585.4016176148</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811862</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="C2" t="n">
         <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811866</v>
       </c>
       <c r="E2" t="n">
         <v>262886.0324963605</v>
@@ -26328,34 +26328,34 @@
         <v>262886.0324963605</v>
       </c>
       <c r="G2" t="n">
-        <v>381336.3624209368</v>
+        <v>402614.4286732772</v>
       </c>
       <c r="H2" t="n">
-        <v>499651.3806651573</v>
+        <v>518770.7078224303</v>
       </c>
       <c r="I2" t="n">
-        <v>548247.8123890611</v>
+        <v>543995.2923855763</v>
       </c>
       <c r="J2" t="n">
-        <v>544339.8322258315</v>
+        <v>540087.3122223468</v>
       </c>
       <c r="K2" t="n">
-        <v>544339.8322258316</v>
+        <v>540087.3122223465</v>
       </c>
       <c r="L2" t="n">
-        <v>537739.028183852</v>
+        <v>512208.4419280267</v>
       </c>
       <c r="M2" t="n">
-        <v>394199.4253764858</v>
+        <v>370827.5782157272</v>
       </c>
       <c r="N2" t="n">
-        <v>370827.5782157272</v>
+        <v>370827.5782157273</v>
       </c>
       <c r="O2" t="n">
+        <v>262886.0324963602</v>
+      </c>
+      <c r="P2" t="n">
         <v>262886.0324963605</v>
-      </c>
-      <c r="P2" t="n">
-        <v>262886.0324963602</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>62448.04282544387</v>
+        <v>69544.0499056683</v>
       </c>
       <c r="H3" t="n">
-        <v>39456.7907253095</v>
+        <v>38736.87437006888</v>
       </c>
       <c r="I3" t="n">
-        <v>22707.49896203168</v>
+        <v>14913.23838572477</v>
       </c>
       <c r="J3" t="n">
         <v>8256.161977016269</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9559.431483690016</v>
+        <v>9559.431483690014</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393782.1919793399</v>
+        <v>394295.9509395492</v>
       </c>
       <c r="C4" t="n">
-        <v>393782.1919793399</v>
+        <v>394295.9509395492</v>
       </c>
       <c r="D4" t="n">
-        <v>393782.1919793399</v>
+        <v>394295.9509395492</v>
       </c>
       <c r="E4" t="n">
-        <v>74095.20920316353</v>
+        <v>74681.49326819954</v>
       </c>
       <c r="F4" t="n">
-        <v>74095.2092031635</v>
+        <v>74681.49326819954</v>
       </c>
       <c r="G4" t="n">
-        <v>115756.8933923824</v>
+        <v>129357.0813871472</v>
       </c>
       <c r="H4" t="n">
-        <v>186932.7598152247</v>
+        <v>199234.295045933</v>
       </c>
       <c r="I4" t="n">
-        <v>213263.1183257945</v>
+        <v>211527.1311179821</v>
       </c>
       <c r="J4" t="n">
-        <v>210912.1583360235</v>
+        <v>209176.1711282111</v>
       </c>
       <c r="K4" t="n">
-        <v>210912.1583360234</v>
+        <v>209176.1711282111</v>
       </c>
       <c r="L4" t="n">
-        <v>206941.2512293237</v>
+        <v>192404.8197179247</v>
       </c>
       <c r="M4" t="n">
-        <v>123495.0458627892</v>
+        <v>110234.7699870897</v>
       </c>
       <c r="N4" t="n">
-        <v>109435.0262959115</v>
+        <v>110234.7699870897</v>
       </c>
       <c r="O4" t="n">
-        <v>74095.20920316351</v>
+        <v>74681.49326819954</v>
       </c>
       <c r="P4" t="n">
-        <v>74095.20920316353</v>
+        <v>74681.49326819953</v>
       </c>
     </row>
     <row r="5">
@@ -26484,25 +26484,25 @@
         <v>4414.317680170459</v>
       </c>
       <c r="G5" t="n">
-        <v>16894.12446764372</v>
+        <v>17639.81724167796</v>
       </c>
       <c r="H5" t="n">
-        <v>21040.49064200128</v>
+        <v>21710.53010594961</v>
       </c>
       <c r="I5" t="n">
-        <v>25269.31313090575</v>
+        <v>25120.28297936715</v>
       </c>
       <c r="J5" t="n">
-        <v>25132.35742571006</v>
+        <v>24983.32727417146</v>
       </c>
       <c r="K5" t="n">
-        <v>25132.35742571006</v>
+        <v>24983.32727417146</v>
       </c>
       <c r="L5" t="n">
-        <v>24901.03133533384</v>
+        <v>24006.308409761</v>
       </c>
       <c r="M5" t="n">
-        <v>17344.91228755875</v>
+        <v>16525.84267207182</v>
       </c>
       <c r="N5" t="n">
         <v>16525.84267207182</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350902.7298018464</v>
+        <v>350388.9708416371</v>
       </c>
       <c r="C6" t="n">
-        <v>350902.7298018465</v>
+        <v>350388.9708416371</v>
       </c>
       <c r="D6" t="n">
-        <v>350902.7298018465</v>
+        <v>350388.9708416373</v>
       </c>
       <c r="E6" t="n">
-        <v>158072.3834477697</v>
+        <v>157486.0993827337</v>
       </c>
       <c r="F6" t="n">
-        <v>184376.5056130265</v>
+        <v>183790.2215479905</v>
       </c>
       <c r="G6" t="n">
-        <v>186237.3017354668</v>
+        <v>186073.4801387838</v>
       </c>
       <c r="H6" t="n">
-        <v>252221.3394826218</v>
+        <v>259089.0083004789</v>
       </c>
       <c r="I6" t="n">
-        <v>287007.8819703292</v>
+        <v>292434.6399025023</v>
       </c>
       <c r="J6" t="n">
-        <v>300039.1544870817</v>
+        <v>297671.651842948</v>
       </c>
       <c r="K6" t="n">
-        <v>308295.3164640981</v>
+        <v>305927.813819964</v>
       </c>
       <c r="L6" t="n">
-        <v>296337.3141355044</v>
+        <v>286237.8823166511</v>
       </c>
       <c r="M6" t="n">
-        <v>253359.4672261379</v>
+        <v>244066.9655565656</v>
       </c>
       <c r="N6" t="n">
-        <v>244866.7092477439</v>
+        <v>244066.9655565657</v>
       </c>
       <c r="O6" t="n">
-        <v>184376.5056130265</v>
+        <v>183790.2215479902</v>
       </c>
       <c r="P6" t="n">
-        <v>184376.5056130262</v>
+        <v>183790.2215479905</v>
       </c>
     </row>
   </sheetData>
@@ -26700,25 +26700,25 @@
         <v>11.94928935461252</v>
       </c>
       <c r="G2" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="H2" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="I2" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="J2" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="K2" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="L2" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="M2" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="N2" t="n">
         <v>22.26949182588285</v>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.70091112216316</v>
+        <v>23.57091997244371</v>
       </c>
       <c r="H2" t="n">
-        <v>49.32098840663688</v>
+        <v>48.4210929625861</v>
       </c>
       <c r="I2" t="n">
-        <v>9.742825720383641</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>10.32020247127033</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.70091112216316</v>
+        <v>23.57091997244371</v>
       </c>
       <c r="M2" t="n">
-        <v>49.32098840663688</v>
+        <v>48.4210929625861</v>
       </c>
       <c r="N2" t="n">
-        <v>9.742825720383641</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>10.32020247127033</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="C17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="D17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="E17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="F17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="G17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="H17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="I17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="S17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="T17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="U17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="V17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="W17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="X17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="Y17" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="C18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="D18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="E18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="F18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="G18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="H18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="I18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="S18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="T18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="U18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="V18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="W18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="X18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="Y18" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="C19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="D19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="E19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="F19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="G19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="H19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="I19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="J19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="K19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="L19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="M19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="N19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="O19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="P19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="R19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="S19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="T19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="U19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="V19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="W19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="X19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.65020047677567</v>
+        <v>35.52020932705622</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="C20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="D20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="E20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="F20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="G20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="H20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="I20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="S20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="T20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="U20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="V20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="W20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="X20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="Y20" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="C21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="D21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="E21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="F21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="G21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="H21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="I21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="S21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="T21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="U21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="V21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="W21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="X21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="Y21" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="C22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="D22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="E22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="F22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="G22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="H22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="I22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="J22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="K22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="L22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="M22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="N22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="O22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="P22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="R22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="S22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="T22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="U22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="V22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="W22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="X22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.97118888341255</v>
+        <v>83.94130228964232</v>
       </c>
     </row>
     <row r="23">
@@ -29037,40 +29037,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="C23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="D23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="E23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="F23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="G23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="H23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="I23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="K23" t="n">
-        <v>60.62259929650517</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>85.71401460379619</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>76.11731327942542</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29082,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="R23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="S23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="T23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="U23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="V23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="W23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="X23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="Y23" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
     </row>
     <row r="24">
@@ -29116,28 +29116,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="C24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="D24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="E24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="F24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="G24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="H24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="I24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="S24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="T24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="U24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="V24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="W24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="X24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="Y24" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="C25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="D25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="E25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="F25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="G25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="H25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="I25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="J25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="K25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="L25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="M25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="N25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="O25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="P25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="R25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="S25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="T25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="U25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="V25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="W25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="X25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.71401460379619</v>
+        <v>83.94130228964232</v>
       </c>
     </row>
     <row r="26">
@@ -29274,43 +29274,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="C26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="D26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="E26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="F26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="G26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="H26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="I26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>67.42619769149758</v>
       </c>
       <c r="L26" t="n">
-        <v>84.084927720454</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>77.92845034594043</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>60.04655122315859</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29319,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="R26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="S26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="T26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="U26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="V26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="W26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="X26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="Y26" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="C27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="D27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="E27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="F27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="G27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="H27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="I27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="S27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="T27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="U27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="V27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="W27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="X27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="Y27" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="C28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="D28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="E28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="F28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="G28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="H28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="I28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="J28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="K28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="L28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="M28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="N28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="O28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="P28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="R28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="S28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="T28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="U28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="V28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="W28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="X28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="Y28" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
     </row>
     <row r="29">
@@ -29511,46 +29511,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="C29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="D29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="E29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="F29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="G29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="H29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="I29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="J29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="K29" t="n">
-        <v>84.084927720454</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>65.83936320325753</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>69.38478783156523</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="S29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="T29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="U29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="V29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="W29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="X29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="C30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="D30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="E30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="F30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="G30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="H30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="I30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="S30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="T30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="U30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="V30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="W30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="X30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="Y30" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="C31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="D31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="E31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="F31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="G31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="H31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="I31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="J31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="K31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="L31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="M31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="N31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="O31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="P31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="R31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="S31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="T31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="U31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="V31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="W31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="X31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.084927720454</v>
+        <v>82.31221540630014</v>
       </c>
     </row>
     <row r="32">
@@ -29748,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="C32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="D32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="E32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="F32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="G32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="H32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="I32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="J32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29784,40 +29784,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>31.92816349330323</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="R32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="S32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="T32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="U32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="V32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="W32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="X32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
     </row>
     <row r="33">
@@ -29827,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="C33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="D33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="E33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="F33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="G33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="H33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="I33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="S33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="T33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="U33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="V33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="W33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="X33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="Y33" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="C34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="D34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="E34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="F34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="G34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="H34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="I34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="J34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="K34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="L34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="M34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="N34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="O34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="P34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="R34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="S34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="T34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="U34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="V34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="W34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="X34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.33330595290337</v>
+        <v>70.69058478846895</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y35" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="36">
@@ -30064,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y36" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="M37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="N37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="O37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="P37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="R37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.01231754626649</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="38">
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="L11" t="n">
         <v>56.08146173384111</v>
@@ -35424,7 +35424,7 @@
         <v>53.81554408802935</v>
       </c>
       <c r="O11" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>53.81554408802936</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>56.08146173384111</v>
       </c>
-      <c r="L12" t="n">
+      <c r="P12" t="n">
         <v>56.08146173384111</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>53.81554408802935</v>
       </c>
       <c r="Q12" t="n">
         <v>56.08146173384111</v>
@@ -35652,10 +35652,10 @@
         <v>56.08146173384111</v>
       </c>
       <c r="L14" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>53.81554408802935</v>
+        <v>53.81554408802936</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>56.08146173384111</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>56.08146173384111</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>53.81554408802936</v>
       </c>
       <c r="M15" t="n">
-        <v>53.81554408802936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>56.08146173384111</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.380708650892821</v>
+        <v>13.25071750117337</v>
       </c>
       <c r="L19" t="n">
-        <v>54.24022573709181</v>
+        <v>63.11023458737236</v>
       </c>
       <c r="M19" t="n">
-        <v>66.23407743861625</v>
+        <v>75.10408628889681</v>
       </c>
       <c r="N19" t="n">
-        <v>70.78237285600426</v>
+        <v>79.65238170628481</v>
       </c>
       <c r="O19" t="n">
-        <v>51.23532839081535</v>
+        <v>60.1053372410959</v>
       </c>
       <c r="P19" t="n">
-        <v>23.92875974166916</v>
+        <v>32.79876859194971</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.7016970575297</v>
+        <v>61.67181046375947</v>
       </c>
       <c r="L22" t="n">
-        <v>103.5612141437287</v>
+        <v>111.5313275499585</v>
       </c>
       <c r="M22" t="n">
-        <v>115.5550658452531</v>
+        <v>123.5251792514829</v>
       </c>
       <c r="N22" t="n">
-        <v>120.1033612626411</v>
+        <v>128.0734746688709</v>
       </c>
       <c r="O22" t="n">
-        <v>100.5563167974522</v>
+        <v>108.526430203682</v>
       </c>
       <c r="P22" t="n">
-        <v>73.24974814830604</v>
+        <v>81.21986155453581</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>71.99201293502981</v>
       </c>
       <c r="K23" t="n">
-        <v>164.6781608226894</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>267.6088141842594</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>219.1673002655598</v>
+        <v>295.2846135449852</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
@@ -36378,7 +36378,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.72331538925138</v>
+        <v>73.95060307509752</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>14.52366985340069</v>
+        <v>141.1474678916203</v>
       </c>
       <c r="N24" t="n">
         <v>297.0957506115002</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.44452277791333</v>
+        <v>61.67181046375947</v>
       </c>
       <c r="L25" t="n">
-        <v>113.3040398641123</v>
+        <v>111.5313275499585</v>
       </c>
       <c r="M25" t="n">
-        <v>125.2978915656368</v>
+        <v>123.5251792514829</v>
       </c>
       <c r="N25" t="n">
-        <v>129.8461869830248</v>
+        <v>128.0734746688709</v>
       </c>
       <c r="O25" t="n">
-        <v>110.2991425178359</v>
+        <v>108.526430203682</v>
       </c>
       <c r="P25" t="n">
-        <v>82.99257386868968</v>
+        <v>81.21986155453581</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>104.0555615261842</v>
+        <v>171.4817592176818</v>
       </c>
       <c r="L26" t="n">
-        <v>265.9797273009172</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>297.0957506115002</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>267.9804120385518</v>
+        <v>290.2460762216934</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36615,7 +36615,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>72.32151619175534</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>76.33768280370506</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>297.0957506115002</v>
@@ -36691,7 +36691,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>28.5400785057269</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>61.81543589457115</v>
+        <v>60.04272358041729</v>
       </c>
       <c r="L28" t="n">
-        <v>111.6749529807701</v>
+        <v>109.9022406666163</v>
       </c>
       <c r="M28" t="n">
-        <v>123.6688046822946</v>
+        <v>121.8960923681407</v>
       </c>
       <c r="N28" t="n">
-        <v>128.2171000996826</v>
+        <v>126.4443877855287</v>
       </c>
       <c r="O28" t="n">
-        <v>108.6700556344937</v>
+        <v>106.8973433203398</v>
       </c>
       <c r="P28" t="n">
-        <v>81.36348698534749</v>
+        <v>79.59077467119363</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.13563836584149</v>
+        <v>70.36292605168762</v>
       </c>
       <c r="K29" t="n">
-        <v>188.1404892466382</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>285.0066634688173</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>277.3186486469585</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>233.0141852473588</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>61.81543589457115</v>
+        <v>60.04272358041729</v>
       </c>
       <c r="L31" t="n">
-        <v>111.6749529807701</v>
+        <v>109.9022406666163</v>
       </c>
       <c r="M31" t="n">
-        <v>123.6688046822946</v>
+        <v>121.8960923681407</v>
       </c>
       <c r="N31" t="n">
-        <v>128.2171000996826</v>
+        <v>126.4443877855287</v>
       </c>
       <c r="O31" t="n">
-        <v>108.6700556344937</v>
+        <v>106.8973433203398</v>
       </c>
       <c r="P31" t="n">
-        <v>81.36348698534749</v>
+        <v>79.59077467119363</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.38401659829086</v>
+        <v>58.74129543385644</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
@@ -37080,16 +37080,16 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>289.2671667682966</v>
+        <v>278.6244456038622</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>182.6301333343619</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.34260673835857</v>
+        <v>60.69988557392415</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>246.8096353769857</v>
+        <v>297.0957506115002</v>
       </c>
       <c r="N33" t="n">
         <v>297.0957506115002</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>38.78950772401308</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>59.06381412702052</v>
+        <v>48.4210929625861</v>
       </c>
       <c r="L34" t="n">
-        <v>108.9233312132195</v>
+        <v>98.28061004878509</v>
       </c>
       <c r="M34" t="n">
-        <v>120.917182914744</v>
+        <v>110.2744617503095</v>
       </c>
       <c r="N34" t="n">
-        <v>125.465478332132</v>
+        <v>114.8227571676975</v>
       </c>
       <c r="O34" t="n">
-        <v>105.918433866943</v>
+        <v>95.27571270250863</v>
       </c>
       <c r="P34" t="n">
-        <v>78.61186521779686</v>
+        <v>67.96914405336244</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>9.742825720383642</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>59.60234280658263</v>
+        <v>49.85951708619899</v>
       </c>
       <c r="M37" t="n">
-        <v>71.59619450810709</v>
+        <v>61.85336878772344</v>
       </c>
       <c r="N37" t="n">
-        <v>76.14448992549509</v>
+        <v>66.40166420511144</v>
       </c>
       <c r="O37" t="n">
-        <v>56.59744546030617</v>
+        <v>46.85461973992253</v>
       </c>
       <c r="P37" t="n">
-        <v>29.29087681115998</v>
+        <v>19.54805109077634</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>53.81554408802936</v>
+      </c>
+      <c r="M41" t="n">
         <v>56.08146173384111</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>56.08146173384111</v>
       </c>
-      <c r="M41" t="n">
-        <v>53.81554408802935</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="P41" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>56.08146173384111</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>56.08146173384111</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" t="n">
+        <v>56.08146173384111</v>
+      </c>
+      <c r="P42" t="n">
         <v>53.81554408802935</v>
-      </c>
-      <c r="P42" t="n">
-        <v>56.08146173384111</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>53.81554408802936</v>
-      </c>
-      <c r="M44" t="n">
-        <v>56.08146173384111</v>
       </c>
       <c r="N44" t="n">
         <v>56.08146173384111</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>56.08146173384111</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>56.08146173384111</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.81554408802936</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>53.81554408802935</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="Q45" t="n">
         <v>56.08146173384111</v>
